--- a/Excel/Herman (HTML Catalog Parser)/Herman.xlsx
+++ b/Excel/Herman (HTML Catalog Parser)/Herman.xlsx
@@ -5,10 +5,10 @@
   <workbookPr codeName="ЭтаКнига" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\BUH\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\BUH\Documents\HatsAndCaps\Excel\Herman (HTML Catalog Parser)\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BEAAB9EB-FEA2-4605-ABFA-469665258A5C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB1C0DAF-B0D0-4BD7-BC34-2EB97B1D9A4B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -57,7 +57,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1316" uniqueCount="441">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1316" uniqueCount="452">
   <si>
     <t>Model</t>
   </si>
@@ -68,42 +68,21 @@
     <t>MITCHUM</t>
   </si>
   <si>
-    <t>70% Wool - 15% Polyamid - 10% Polyester - 5% Other fibers | Colors : Blue - Burgundy - Brown - Green Sizes : from 53 to 63 (pre-order)</t>
-  </si>
-  <si>
     <t>RYAN</t>
   </si>
   <si>
-    <t>70% Wool - 15% Polyamid - 10% Polyester - 5% Other fibers | Colors : Green - Blue - Burgundy - Taupe Sizes : from 53 to 63 (pre-order)</t>
-  </si>
-  <si>
     <t>GOSLING</t>
   </si>
   <si>
-    <t>70% Wool - 15% Polyamid - 10% Polyester - 5% Other fibers | Colors : Green - Brown - Burgundy - Blue Sizes : from 53 to 63 (pre-order)</t>
-  </si>
-  <si>
     <t>GRASBERG</t>
   </si>
   <si>
-    <t>80% Wool - 20% Polyamid | Colors : Charcoal - Taupe - Navy - Brown - Black Sizes : from 53 to 63 (pre-order)</t>
-  </si>
-  <si>
     <t>VINSON</t>
   </si>
   <si>
-    <t>50% Wool - 30% Polyester - 10% Silk - 10% Acrylic | Colors : Black - Burgundy - Green - Navy Sizes : from 53 to 63 (pre-order)</t>
-  </si>
-  <si>
     <t>EMERSON</t>
   </si>
   <si>
-    <t>100% Virgin Wool | Colors : Green - Brown Sizes : from 53 to 63 (pre-order)</t>
-  </si>
-  <si>
-    <t>100% Virgin Wool | Color : Type Sizes : from 53 to 63 (pre-order)</t>
-  </si>
-  <si>
     <t>HILL</t>
   </si>
   <si>
@@ -122,135 +101,72 @@
     <t>LEDGER</t>
   </si>
   <si>
-    <t>100% Virgin Wool | Colors : Blue - Brown Sizes : from 53 to 63 (pre-order)</t>
-  </si>
-  <si>
     <t>CRISP</t>
   </si>
   <si>
-    <t>100% Virgin Wool | Colors : Charcoal - Navy Sizes : from 53 to 63 (pre-order)</t>
-  </si>
-  <si>
     <t>JANSSON</t>
   </si>
   <si>
-    <t>100% Cotton | Colors : Black - Navy - Taupe Sizes : from 53 to 63 (pre-order)</t>
-  </si>
-  <si>
     <t>KUBOR</t>
   </si>
   <si>
-    <t>80% Wool - 20% Polyamid | Colors : Blue - Patchwork - Black Sizes : from 53 to 63 (pre-order)</t>
-  </si>
-  <si>
     <t>SPITZ</t>
   </si>
   <si>
-    <t>50% Wool - 50% Polyester | Colors : Blue - Brown Sizes : from 53 to 63 (pre-order)</t>
-  </si>
-  <si>
     <t>STEELE</t>
   </si>
   <si>
-    <t>100% Cotton | Colors : Black - Taupe - Blue Sizes : from 53 to 63 (pre-order)</t>
-  </si>
-  <si>
     <t>GARRY</t>
   </si>
   <si>
-    <t>94% Polyester вЂ“ 6% Nylon | Colors : Brown - Beige Sizes : from 53 to 63 (pre-order)</t>
-  </si>
-  <si>
     <t>MOORE</t>
   </si>
   <si>
-    <t>100% Leather | Colors : Brown - Cognac - Black Sizes : from 53 to 63 (pre-order)</t>
-  </si>
-  <si>
     <t>KING OTTO</t>
   </si>
   <si>
     <t>KING</t>
   </si>
   <si>
-    <t>100% Leather | Colors : Cognac - Brown - Black Sizes : from 53 to 63 (pre-order)</t>
-  </si>
-  <si>
     <t>STONE</t>
   </si>
   <si>
-    <t>100% Leather | Colors : Washed Black - Washed Brown Sizes : from 53 to 63 (pre-order)</t>
-  </si>
-  <si>
     <t>STONE OTTO</t>
   </si>
   <si>
-    <t>100% Leather | Colors : Washed Brown - Washed Black Sizes : from 53 to 63 (pre-order)</t>
-  </si>
-  <si>
     <t>KING QUATTRO</t>
   </si>
   <si>
-    <t>100% Leather | Colors : Cognac-Black - Brown Sizes : from 53 to 63 (pre-order)</t>
-  </si>
-  <si>
     <t>DUKE SIX</t>
   </si>
   <si>
-    <t>100% Leather | Colors : Cognac - Brown - Charcoal - Black Sizes : from 53 to 63 (pre-order)</t>
-  </si>
-  <si>
     <t>DUKE SIX-S</t>
   </si>
   <si>
     <t>PARTON</t>
   </si>
   <si>
-    <t>100% Wool | Colors : Rust - Navy Sizes : One size</t>
-  </si>
-  <si>
     <t>DOLLY</t>
   </si>
   <si>
-    <t>100% Wool | Colors : Navy - Rust Sizes : One size</t>
-  </si>
-  <si>
     <t>MERYL</t>
   </si>
   <si>
-    <t>98% Cotton вЂ“ 2% Elastane | Colors : Charcoal - Navy Sizes : One size</t>
-  </si>
-  <si>
     <t>STREEP</t>
   </si>
   <si>
-    <t>98% Cotton вЂ“ 2% Elastane | Colors : Navy - Charcoal Sizes : One size</t>
-  </si>
-  <si>
     <t>CASSICAN</t>
   </si>
   <si>
-    <t>100% Cotton | Colors : Green - Black - Grey - Blue - Tobacco Sizes : 57 - 59</t>
-  </si>
-  <si>
     <t>CHUCK</t>
   </si>
   <si>
-    <t>15% Wool - 50% Polyester - 35% Viscose | Color : Grey Sizes : One size</t>
-  </si>
-  <si>
     <t>HARTLEY</t>
   </si>
   <si>
-    <t>100% Cotton | Colors : Beige - Mustard - Old pink - Black Sizes : One size</t>
-  </si>
-  <si>
     <t>GIORGIO</t>
   </si>
   <si>
-    <t>70% Wool - 30% Polyamid | Colors : Charcoal - Beige - Brown - Blue Sizes : One size</t>
-  </si>
-  <si>
     <t>KARL</t>
   </si>
   <si>
@@ -266,195 +182,102 @@
     <t>WILLIS</t>
   </si>
   <si>
-    <t>10% Cotton - 57% Polyester - 33% Acrylic | Colors : Green - Charcoal - Blue Sizes : M 9,5' - L 10' - XL 10,5'</t>
-  </si>
-  <si>
     <t>BRUCE</t>
   </si>
   <si>
-    <t>10% Cotton - 57% Polyester - 33% Acrylic | Colors : Green - Blue - Charcoal Sizes : One Size</t>
-  </si>
-  <si>
     <t>WHALES</t>
   </si>
   <si>
-    <t>100% Corduroy Cotton | Colors : Black - Navy Sizes : T.U. - One size</t>
-  </si>
-  <si>
     <t>SEAL</t>
   </si>
   <si>
-    <t>100% Cotton | Colors : Navy - Black Sizes : T.U. - One size</t>
-  </si>
-  <si>
     <t>GLAZIC</t>
   </si>
   <si>
-    <t>50% Wool - 50% Polyester | Color : Navy Sizes : S - M - L - XL</t>
-  </si>
-  <si>
     <t>TABARLY</t>
   </si>
   <si>
-    <t>50% Wool - 50% Polyester | Color : red - Navy - Black - Grey Sizes : T.U. - One size</t>
-  </si>
-  <si>
     <t>MARTABAN</t>
   </si>
   <si>
-    <t>61% Cotton - 36% Polyester - 3%PU | Colors : Navy - Black - Brown Sizes : S - M - L - XL</t>
-  </si>
-  <si>
     <t>COLORADO</t>
   </si>
   <si>
-    <t>60% Cotton - 40% Polyester | Color : Washed Brown (Non-waterproof) Colors : Brown - Charcoal (Waterproof) Sizes : 57 - 59</t>
-  </si>
-  <si>
     <t>MAKASSAR</t>
   </si>
   <si>
-    <t>61% Cotton - 36% Polyester - 3%PU | Colors : Navy - Brown - Black Sizes : S - M - L - XL</t>
-  </si>
-  <si>
     <t>KENDAL</t>
   </si>
   <si>
-    <t>100% Cotton | Colors : Mustard - Black - Old pink - Beige Sizes : M - L</t>
-  </si>
-  <si>
     <t>AUSTRALIAN</t>
   </si>
   <si>
-    <t>100% Buffalo Leather | Colors : Black - Brown Sizes : 55 - 57 - 59 - 61</t>
-  </si>
-  <si>
     <t>ARIZONA</t>
   </si>
   <si>
-    <t>60% Cotton - 40% Polyester | Colors : Brown - Charcoal (Waterproof) Color : Washed Brown (Non-waterproof) Sizes : 55 - 57 - 59 - 61</t>
-  </si>
-  <si>
     <t>NEVADA</t>
   </si>
   <si>
-    <t>45% Cotton - 55% Polyester | Colors : Brown - Charcoal (Waterproof) Color : Washed Brown (Non-waterproof) Sizes : 55 - 57 - 59 - 61</t>
-  </si>
-  <si>
     <t>DAKOTA</t>
   </si>
   <si>
-    <t>60% Cotton - 40% Polyester | Colors : Charcoal - Brown (Waterproof) Color : Washed Brown (Non-waterproof) Sizes : 55 - 57 - 59 - 61</t>
-  </si>
-  <si>
     <t>KAIRAN</t>
   </si>
   <si>
-    <t>100% Polyester | Colors : Black - Brown Sizes : S - M - L - XL</t>
-  </si>
-  <si>
     <t>MAC LORCA</t>
   </si>
   <si>
-    <t>100% Wool Felt | Colors : Grey - Charcoal - Green - Brown Sizes : S - M - L - XL</t>
-  </si>
-  <si>
     <t>MAC TUCKER</t>
   </si>
   <si>
-    <t>100% Wool Felt | Colors : Brown - Black Sizes : S - M - L - XL</t>
-  </si>
-  <si>
     <t>MAC COY</t>
   </si>
   <si>
-    <t>100% Wool Felt | Colors : Green - Navy - Black Sizes : S - M - L - XL</t>
-  </si>
-  <si>
     <t>O GOLDWIN</t>
   </si>
   <si>
-    <t>100% Wool Felt | Colors : Charcoal - Pink - Grey - Blue - Mustard - Beige Sizes : S - M - L - XL</t>
-  </si>
-  <si>
     <t>MAC SOFT</t>
   </si>
   <si>
     <t>MAC CARTHY</t>
   </si>
   <si>
-    <t>100% Wool Felt | Colors : Black - Charcoal - Brown Sizes : S - M - L - XL</t>
-  </si>
-  <si>
     <t>MAC PORTER</t>
   </si>
   <si>
-    <t>100% Wool Felt | Colors : Navy - Green - Brown - Black - Camel Sizes : 55 - 57 - 59 - 61</t>
-  </si>
-  <si>
     <t>SPARROW</t>
   </si>
   <si>
-    <t>100% Wool Felt | Colors : Black - Camel Sizes : 57 - 59</t>
-  </si>
-  <si>
     <t>GOLDBERG</t>
   </si>
   <si>
-    <t>100% Wool Felt | Colors : Black - Brown - Navy Sizes : 55 - 57 - 59 - 61</t>
-  </si>
-  <si>
     <t>GOOSE</t>
   </si>
   <si>
-    <t>100% Wool Felt | Colors : Charcoal - Green - Brown - Red - Navy - Camel - Black Sizes : 56 - 58</t>
-  </si>
-  <si>
     <t>STRINGY</t>
   </si>
   <si>
-    <t>100% Wool Felt | Colors : Grey - Beige - Navy - Pink - Green - Rust Sizes : 55 - 57 - 59</t>
-  </si>
-  <si>
     <t>TULIP</t>
   </si>
   <si>
-    <t>100% Wool Felt | Colors : Navy - Pink - Rust - Red - Green - Grey - Beige Sizes : 57</t>
-  </si>
-  <si>
     <t>YOKO</t>
   </si>
   <si>
-    <t>100% Wool Felt | Colors : Beige - Grey - Rust - Red - Navy - Pink - Green Sizes : 55 - 57 - 59</t>
-  </si>
-  <si>
     <t>STARLING</t>
   </si>
   <si>
-    <t>100% Wool Felt | Colors : Grey - Navy - Green - Rust - Red - Beige - Pink Sizes : 57</t>
-  </si>
-  <si>
     <t>MAC HAWK</t>
   </si>
   <si>
-    <t>100% Wool Felt | Color : Black Sizes : S - M - L - XL</t>
-  </si>
-  <si>
     <t>DON VEGAS</t>
   </si>
   <si>
-    <t>100% Wool Felt | Color : Black Sizes : M - L</t>
-  </si>
-  <si>
     <t>DON HAWK</t>
   </si>
   <si>
     <t>FALCON 90gr</t>
   </si>
   <si>
-    <t>100% Wool Felt | Colors : Black - Navy - Burgundy - Green Sizes : S - M - L - XL</t>
-  </si>
-  <si>
     <t>DON CHURCH</t>
   </si>
   <si>
@@ -464,297 +287,153 @@
     <t>KATY</t>
   </si>
   <si>
-    <t>100% Acrylic | Colors : Beige - Pink - Black - Grey Sizes : 53 - 55 - 57 - 59 - 61</t>
-  </si>
-  <si>
     <t>PERRY</t>
   </si>
   <si>
-    <t>100% Acrylic | Colors : Beige - Black - Pink - Grey Sizes : One size</t>
-  </si>
-  <si>
     <t>JODIE</t>
   </si>
   <si>
-    <t>100% Polyester | Colors : White - Beige - Black Sizes : One size (57)</t>
-  </si>
-  <si>
     <t>FOSTER</t>
   </si>
   <si>
-    <t>100% Polyester | Colors : White - Beige - Black Sizes : One size</t>
-  </si>
-  <si>
     <t>FRIDA</t>
   </si>
   <si>
-    <t>98% Recycled Polyester - 2% Spandex | Colors : Beige - Grey Sizes : One size</t>
-  </si>
-  <si>
     <t>URSULA</t>
   </si>
   <si>
-    <t>100% Acrylic | Colors : Blue - Grey Sizes : One size</t>
-  </si>
-  <si>
     <t>BUCK 001</t>
   </si>
   <si>
-    <t>100% Polyester | Colors : Black - Brown - Charcoal Sizes : S - M - L - XL</t>
-  </si>
-  <si>
     <t>LEWIS</t>
   </si>
   <si>
-    <t>100% Acrylic | Color : Red Sizes : S - M - L - XL</t>
-  </si>
-  <si>
     <t>LOUISE 126</t>
   </si>
   <si>
-    <t>72% Acrylic - 25% Nylon - 4% Elasthan | Colors : Beige - Grey - Purple - Pink Sizes : One size</t>
-  </si>
-  <si>
     <t>LOUISE 129</t>
   </si>
   <si>
-    <t>100% Acrylic | Colors : Purple - Pink - Blue Sizes : One size</t>
-  </si>
-  <si>
     <t>LOUISE 127</t>
   </si>
   <si>
-    <t>67% Acrylic - 29% Nylon - 4% Elasthan | Colors : Grey - Black - Rust Sizes : One size</t>
-  </si>
-  <si>
     <t>LOUISE 131</t>
   </si>
   <si>
-    <t>52% Acrylic - 28% Nylon - 28% Polyester | Colors : Black - Grey Sizes : One size</t>
-  </si>
-  <si>
     <t>LOUISE 128</t>
   </si>
   <si>
-    <t>67% Acrylic - 29% Nylon - 4% Elasthan | Colors : Beige - White - Blue - Grey - Pink - Black - Green Sizes : One size</t>
-  </si>
-  <si>
     <t>LOUISE 130</t>
   </si>
   <si>
-    <t>100% Acrylic | Colors : Beige - Black - Purple Sizes : One size</t>
-  </si>
-  <si>
     <t>MAGGY 8630</t>
   </si>
   <si>
-    <t>90% Nylon - 10% Polyester | Colors : Light Blue - White - Pink - Coral - Orange - Beige - Mustard - Light Green - Green - Black Sizes: One Size</t>
-  </si>
-  <si>
     <t>MAGGY 8631</t>
   </si>
   <si>
-    <t>90% Nylon - 10% Polyester | Colors : Light Blue -White - Pink - Coral - Orange - Beige - Mustard - Light Green - Green - Black Sizes : One size</t>
-  </si>
-  <si>
     <t>MAGGY 8632</t>
   </si>
   <si>
-    <t>90% Nylon - 10% Polyester | Colors : Light Blue - White - Pink - Coral - Orange - Beige - Mustard - Light Green - Green - Black Sizes : One size</t>
-  </si>
-  <si>
     <t>EDMOND 057</t>
   </si>
   <si>
-    <t>100% Acrylic | Colors : Blue - Black - Mustard - Grey - Red Sizes : One size</t>
-  </si>
-  <si>
     <t>EDMOND 051</t>
   </si>
   <si>
-    <t>100% Acrylic | Colors : Beige - Khaki - Offwhite - Black - Brown Sizes : One size</t>
-  </si>
-  <si>
     <t>EDMOND 120</t>
   </si>
   <si>
-    <t>72% Acrylic - 25% Nylon - 4% Elasthan | Colors : Khaki - Navy - Charcoal Sizes : One size</t>
-  </si>
-  <si>
     <t>EDMOND 114</t>
   </si>
   <si>
-    <t>70% Acrylic - 30% Nylon | Colors : Black - Red - Navy - Blue Sizes : One size</t>
-  </si>
-  <si>
     <t>EDMOND 055</t>
   </si>
   <si>
-    <t>100% Acrylic | Colors : Black - Red - Navy - Grey Sizes : One size</t>
-  </si>
-  <si>
     <t>JUSTIN 4130</t>
   </si>
   <si>
-    <t>100% Acrylic | Colors : Charcoal - Black Sizes : One size</t>
-  </si>
-  <si>
     <t>EDMOND 019</t>
   </si>
   <si>
-    <t>100% Acrylic | Colors : Black - Charcoal - Khaki - Navy Sizes : One size</t>
-  </si>
-  <si>
     <t>EDMOND 115</t>
   </si>
   <si>
-    <t>100% Acrylic | Colors : Khaki - Navy Sizes : One size</t>
-  </si>
-  <si>
     <t>EDMOND 110</t>
   </si>
   <si>
-    <t>100% Acrylic | Colors : Grey - Khaki - Navy Sizes : One size</t>
-  </si>
-  <si>
     <t>EDMOND 112</t>
   </si>
   <si>
-    <t>80% Lambswool - 20% Nylon | Colors : Navy - Green - Rust Sizes : One size</t>
-  </si>
-  <si>
     <t>EDMOND 118</t>
   </si>
   <si>
-    <t>100% Acrylic | Colors : Black - Grey Sizes : One size</t>
-  </si>
-  <si>
     <t>EDMOND 121</t>
   </si>
   <si>
-    <t>50% Acrylic - 45% Nylon - 5% Wool | Colors : Beige - Grey Sizes : One size</t>
-  </si>
-  <si>
     <t>EDMOND 116</t>
   </si>
   <si>
-    <t>100% Acrylic | Colors : Beige - Mustard - Grey Sizes : One size</t>
-  </si>
-  <si>
     <t>EDMOND 117</t>
   </si>
   <si>
-    <t>100% Acrylic | Colors : Navy - Black - Mustard - Khaki - Blue Sizes : One size</t>
-  </si>
-  <si>
     <t>EDMOND 119</t>
   </si>
   <si>
-    <t>100% Acrylic | Colors : Black Sizes : One size - Gloves : One size Neckband/Tour de cou (В±25x35cm)</t>
-  </si>
-  <si>
     <t>EDMOND 050</t>
   </si>
   <si>
-    <t>100% Acrylic | Colors : Beige - Black - Charcoal Sizes : One size</t>
-  </si>
-  <si>
     <t>EDMOND 088</t>
   </si>
   <si>
-    <t>100% Acrylic | Colors : Denim - Navy - Black -Offwhite - Grey Sizes : One size</t>
-  </si>
-  <si>
     <t>EDMOND 089</t>
   </si>
   <si>
-    <t>100% Acrylic | Colors : Denim - Navy - Black -Offwhite - Grey Sizes : One size (160x25cm)</t>
-  </si>
-  <si>
     <t>LOUISE 105</t>
   </si>
   <si>
-    <t>100% Acrylic | Colors : Mustard - Denim - Offwhite - Black - Pink - Grey - Burgundy Sizes : One size</t>
-  </si>
-  <si>
     <t>LOUISE 106</t>
   </si>
   <si>
-    <t>100% Acrylic | Colors : Mustard - Denim - Offwhite - Black - Pink - Grey - Burgundy Sizes : One size (180x35cm)</t>
-  </si>
-  <si>
     <t>LOUISE 116</t>
   </si>
   <si>
     <t>MAGGY 8621</t>
   </si>
   <si>
-    <t>30% Wool - 70% Acrylic | Colors : Black - Beige - White - Grey Sizes : One size</t>
-  </si>
-  <si>
     <t>LOUISE 110</t>
   </si>
   <si>
-    <t>100% Acrylic | Colors : Mustard - Purple - Blue - Grey Sizes : One size</t>
-  </si>
-  <si>
     <t>LOUISE 124</t>
   </si>
   <si>
     <t>LOUISE 102</t>
   </si>
   <si>
-    <t>100% Acrylic | Colors : Offwhite - Grey - Black - Taupe Sizes : One size</t>
-  </si>
-  <si>
     <t>LOUISE 091</t>
   </si>
   <si>
-    <t>100% Acrylic | Colors : White - Black - Grey - Mustard Sizes : One size</t>
-  </si>
-  <si>
     <t>LOUISE 041</t>
   </si>
   <si>
-    <t>100% Acrylic | Colors : Green - Putty - Grey - Offwhite - Purple - Black Sizes : One size</t>
-  </si>
-  <si>
     <t>LOUISE 132</t>
   </si>
   <si>
-    <t>67% Acrylic - 27% Nylon - 3% Spandex - 3% Polyester | Colors : Blue - Offwhite Sizes : One size</t>
-  </si>
-  <si>
     <t>MAGGY 8633</t>
   </si>
   <si>
-    <t>100% Acrylic | Colors : Black - Beige - Pink - Blue Sizes : One size</t>
-  </si>
-  <si>
     <t>MAGGY 8165 BIS</t>
   </si>
   <si>
-    <t>30% Wool - 70% Acrylic | Colors : Beige - Taupe - Blue - Raspberry - White - Black Sizes : One size</t>
-  </si>
-  <si>
     <t>MAGGY 8111</t>
   </si>
   <si>
-    <t>30% Wool - 70% Acrylic | Colors : Black - Beige - Grey - Offwhite Sizes : One size</t>
-  </si>
-  <si>
     <t>JUSTIN 8172</t>
   </si>
   <si>
-    <t>30% Wool - 70% Acrylic | Colors : Beige - Grey Sizes : One size</t>
-  </si>
-  <si>
     <t>Pulse 007</t>
   </si>
   <si>
-    <t>80% Recycled Polyester RecyclГ© 20% Wool/Laine | Colors : Pink - Cream - Pearl - Rust - Khaki - Beige - Blue - Black Sizes : One size/Taille unique</t>
-  </si>
-  <si>
     <t>Pulse 006</t>
   </si>
   <si>
@@ -767,9 +446,6 @@
     <t>JUSTIN 8100</t>
   </si>
   <si>
-    <t>30% Wool - 70% Acrylic | Colors : Denim - Beige - Grey - Taupe - Navy - Offwhite - Black - Pearl - Pink Sizes : One size</t>
-  </si>
-  <si>
     <t>JUSTIN 8170</t>
   </si>
   <si>
@@ -782,87 +458,45 @@
     <t>JUSTIN 8634</t>
   </si>
   <si>
-    <t>30% Wool - 70% Acrylic | Colors : Denim - Beige - Grey - Taupe - Navy - Offwhite - Black - Pearl - Pink 10% Cotton - 57% Polyester - 33% Acrylic | Colors : Charcoal Sizes : M 9,5 - L 10 - XL 10,5</t>
-  </si>
-  <si>
-    <t>10% Cotton - 57% Polyester - 33% Acrylic | Colors : Charcoal Sizes : M 9,5 - L 10 - XL 10,5</t>
-  </si>
-  <si>
     <t>ALASKA</t>
   </si>
   <si>
-    <t>80% Acrylic - 20% Nylon | Colors : Black - Charcoal - Khaki - Navy Sizes : One size (10)</t>
-  </si>
-  <si>
     <t>SIBERIA</t>
   </si>
   <si>
-    <t>70% Acrylic - 30% Nylon | Colors : Navy - Grey - Black Sizes : One size (10)</t>
-  </si>
-  <si>
     <t>DRIVER 007</t>
   </si>
   <si>
-    <t>100% Leather | Colors : Black Sizes : 7 - 7,5 - 8 - 8,5 - 9 - 9,5 - 10 - 10,5</t>
-  </si>
-  <si>
     <t>DRIVER 006</t>
   </si>
   <si>
-    <t>80% Wool - 20% Polyamid | Colors : Brown - Black Sizes : 7 - 7,5 - 8 - 8,5 - 9 - 9,5 - 10 - 10,5</t>
-  </si>
-  <si>
     <t>DRIVER 008</t>
   </si>
   <si>
-    <t>97% Acrylic - 3% Elasthan | Colors : Black Sizes : One size</t>
-  </si>
-  <si>
     <t>PAINTER 012</t>
   </si>
   <si>
-    <t>80% Wool - 20% Polyamid | Colors : Grey Sizes : S 7' - M 7,5' - L 8' - XL 8,5'</t>
-  </si>
-  <si>
     <t>PAINTER 013</t>
   </si>
   <si>
-    <t>97% Acrylic - 3% Elasthan | Colors : Grey Sizes : One size</t>
-  </si>
-  <si>
     <t>OSLO</t>
   </si>
   <si>
-    <t>80% Acrylic - 20% Nylon | Colors : Grey - Khaki - White - Black Sizes : One size (8,5)</t>
-  </si>
-  <si>
     <t>INUIT</t>
   </si>
   <si>
     <t>OURAL</t>
   </si>
   <si>
-    <t>80% Acrylic - 20% Nylon | Colors : Beige - Black - Mustard - Red Sizes : One size (8,5)</t>
-  </si>
-  <si>
     <t>ALPINA</t>
   </si>
   <si>
-    <t>80% Acrylic - 20% Nylon | Colors : Red - Grey - Mustard - Khaki - Black Sizes : One size (8,5)</t>
-  </si>
-  <si>
     <t>HUSKY</t>
   </si>
   <si>
-    <t>50% Acrylic - 30% Wool - 20% Nylon | Colors : Navy - Grey - Charcoal - Black Sizes : One size (8,5)</t>
-  </si>
-  <si>
     <t xml:space="preserve">LIGURE </t>
   </si>
   <si>
-    <t>30% Wool - 70% Polyester | Colors : Beige - Grey Sizes : S - M - L - XL</t>
-  </si>
-  <si>
     <t>70% Wool - 15% Polyamid - 10% Polyester - 5% Other fibers</t>
   </si>
   <si>
@@ -971,9 +605,6 @@
     <t>98% Cotton - 2% Elastane</t>
   </si>
   <si>
-    <t>80% Recycled Polyester Recycle - 20% Wool/Laine</t>
-  </si>
-  <si>
     <t>Colors</t>
   </si>
   <si>
@@ -1079,9 +710,6 @@
     <t>Navy - Black - Brown</t>
   </si>
   <si>
-    <t>Washed Brown (Non-waterproof) Color: Brown - Charcoal (Waterproof)</t>
-  </si>
-  <si>
     <t>Navy - Brown - Black</t>
   </si>
   <si>
@@ -1091,12 +719,6 @@
     <t>Black - Brown</t>
   </si>
   <si>
-    <t>Brown - Charcoal (Waterproof) Color: Washed Brown (Non-waterproof)</t>
-  </si>
-  <si>
-    <t>Charcoal - Brown (Waterproof) Color: Washed Brown (Non-waterproof)</t>
-  </si>
-  <si>
     <t>Grey - Charcoal - Green - Brown</t>
   </si>
   <si>
@@ -1262,9 +884,6 @@
     <t>Denim - Beige - Grey - Taupe - Navy - Offwhite - Black - Pearl - Pink</t>
   </si>
   <si>
-    <t>Denim - Beige - Grey - Taupe - Navy - Offwhite - Black - Pearl - Pink 10% Cotton - 57% Polyester - 33% Acrylic | Color: Charcoal</t>
-  </si>
-  <si>
     <t>Charcoal</t>
   </si>
   <si>
@@ -1361,15 +980,6 @@
     <t>Sizes result</t>
   </si>
   <si>
-    <t>Washed Brown (Non-waterproof) - Brown - Charcoal (Waterproof)</t>
-  </si>
-  <si>
-    <t>Brown - Charcoal (Waterproof) - Washed Brown (Non-waterproof)</t>
-  </si>
-  <si>
-    <t>Charcoal - Brown (Waterproof) - Washed Brown (Non-waterproof)</t>
-  </si>
-  <si>
     <t>53 - 54 - 55 - 56 - 57 - 58 - 59 - 60 - 61 - 62 - 63</t>
   </si>
   <si>
@@ -1380,6 +990,429 @@
   </si>
   <si>
     <t>7 - 7,5 - 8 - 8,5</t>
+  </si>
+  <si>
+    <t>70% Wool - 15% Polyamid - 10% Polyester - 5% Other fibers | Color: Blue - Burgundy - Brown - Green Sizes: from 53 to 63 (pre-order)</t>
+  </si>
+  <si>
+    <t>70% Wool - 15% Polyamid - 10% Polyester - 5% Other fibers | Color: Green - Blue - Burgundy - Taupe Sizes: from 53 to 63 (pre-order)</t>
+  </si>
+  <si>
+    <t>70% Wool - 15% Polyamid - 10% Polyester - 5% Other fibers | Color: Green - Brown - Burgundy - Blue Sizes: from 53 to 63 (pre-order)</t>
+  </si>
+  <si>
+    <t>80% Wool - 20% Polyamid | Color: Charcoal - Taupe - Navy - Brown - Black Sizes: from 53 to 63 (pre-order)</t>
+  </si>
+  <si>
+    <t>50% Wool - 30% Polyester - 10% Silk - 10% Acrylic | Color: Black - Burgundy - Green - Navy Sizes: from 53 to 63 (pre-order)</t>
+  </si>
+  <si>
+    <t>100% Virgin Wool | Color: Green - Brown Sizes: from 53 to 63 (pre-order)</t>
+  </si>
+  <si>
+    <t>30% Wool - 70% Polyester | Color: Beige - Grey Sizes: S - M - L - XL</t>
+  </si>
+  <si>
+    <t>100% Wool | Color: Grey - Blue - Rust - Burgundy Sizes: from 53 to 63 (pre-order)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">100% Wool | Color: Taupe - Charcoal Sizes: from 53 to 63 (pre-order) </t>
+  </si>
+  <si>
+    <t>100% Virgin Wool | Color: Type Sizes: from 53 to 63 (pre-order)</t>
+  </si>
+  <si>
+    <t>100% Virgin Wool | Color: Blue - Brown Sizes: from 53 to 63 (pre-order)</t>
+  </si>
+  <si>
+    <t>100% Virgin Wool | Color: Charcoal - Navy Sizes: from 53 to 63 (pre-order)</t>
+  </si>
+  <si>
+    <t>100% Cotton | Color: Black - Navy - Taupe Sizes: from 53 to 63 (pre-order)</t>
+  </si>
+  <si>
+    <t>80% Wool - 20% Polyamid | Color: Blue - Patchwork - Black Sizes: from 53 to 63 (pre-order)</t>
+  </si>
+  <si>
+    <t>50% Wool - 50% Polyester | Color: Blue - Brown Sizes: from 53 to 63 (pre-order)</t>
+  </si>
+  <si>
+    <t>100% Cotton | Color: Black - Taupe - Blue Sizes: from 53 to 63 (pre-order)</t>
+  </si>
+  <si>
+    <t>94% Polyester - 6% Nylon | Color: Brown - Beige Sizes: from 53 to 63 (pre-order)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">94% Polyester - 6% Nylon | Color: Beige - Brown Sizes: from 53 to 63 (pre-order) </t>
+  </si>
+  <si>
+    <t>100% Leather | Color: Brown - Cognac - Black Sizes: from 53 to 63 (pre-order)</t>
+  </si>
+  <si>
+    <t>100% Leather | Color: Cognac - Brown - Black Sizes: from 53 to 63 (pre-order)</t>
+  </si>
+  <si>
+    <t>100% Leather | Color: Washed Black - Washed Brown Sizes: from 53 to 63 (pre-order)</t>
+  </si>
+  <si>
+    <t>100% Leather | Color: Washed Brown - Washed Black Sizes: from 53 to 63 (pre-order)</t>
+  </si>
+  <si>
+    <t>100% Leather | Color: Cognac-Black - Brown Sizes: from 53 to 63 (pre-order)</t>
+  </si>
+  <si>
+    <t>100% Leather | Color: Cognac - Brown - Charcoal - Black Sizes: from 53 to 63 (pre-order)</t>
+  </si>
+  <si>
+    <t>100% Wool | Color: Rust - Navy Sizes: One size</t>
+  </si>
+  <si>
+    <t>100% Wool | Color: Navy - Rust Sizes: One size</t>
+  </si>
+  <si>
+    <t>98% Cotton - 2% Elastane | Color: Charcoal - Navy Sizes: One size</t>
+  </si>
+  <si>
+    <t>98% Cotton - 2% Elastane | Color: Navy - Charcoal Sizes: One size</t>
+  </si>
+  <si>
+    <t>100% Cotton | Color: Green - Black - Grey - Blue - Tobacco Sizes: 57 - 59</t>
+  </si>
+  <si>
+    <t>15% Wool - 50% Polyester - 35% Viscose | Color: Grey Sizes: One size</t>
+  </si>
+  <si>
+    <t>100% Cotton | Color: Beige - Mustard - Old pink - Black Sizes: One size</t>
+  </si>
+  <si>
+    <t>100% Polyester | Color: Black - Navy Sizes: One size</t>
+  </si>
+  <si>
+    <t>100% Polyester | Color: Navy - Black Sizes: One size</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15% Wool - 50% Polyester - 35% Viscose | Color: Black - Charcoal - Grey Sizes: One size </t>
+  </si>
+  <si>
+    <t>70% Wool - 30% Polyamid | Color: Charcoal - Beige - Brown - Blue Sizes: One size</t>
+  </si>
+  <si>
+    <t>10% Cotton - 57% Polyester - 33% Acrylic | Color: Green - Charcoal - Blue Sizes: M 9,5' - L 10' - XL 10,5'</t>
+  </si>
+  <si>
+    <t>10% Cotton - 57% Polyester - 33% Acrylic | Color: Green - Blue - Charcoal Sizes: One Size</t>
+  </si>
+  <si>
+    <t>100% Corduroy Cotton | Color: Black - Navy Sizes: T.U. - One size</t>
+  </si>
+  <si>
+    <t>100% Cotton | Color: Navy - Black Sizes: T.U. - One size</t>
+  </si>
+  <si>
+    <t>50% Wool - 50% Polyester | Color: Navy Sizes: S - M - L - XL</t>
+  </si>
+  <si>
+    <t>50% Wool - 50% Polyester | Color: red - Navy - Black - Grey Sizes: T.U. - One size</t>
+  </si>
+  <si>
+    <t>61% Cotton - 36% Polyester - 3%PU | Color: Navy - Black - Brown Sizes: S - M - L - XL</t>
+  </si>
+  <si>
+    <t>60% Cotton - 40% Polyester | Color: Washed Brown (Non-waterproof) Color: Brown - Charcoal (Waterproof) Sizes: 57 - 59</t>
+  </si>
+  <si>
+    <t>61% Cotton - 36% Polyester - 3%PU | Color: Navy - Brown - Black Sizes: S - M - L - XL</t>
+  </si>
+  <si>
+    <t>100% Cotton | Color: Mustard - Black - Old pink - Beige Sizes: M - L</t>
+  </si>
+  <si>
+    <t>100% Buffalo Leather | Color: Black - Brown Sizes: 55 - 57 - 59 - 61</t>
+  </si>
+  <si>
+    <t>60% Cotton - 40% Polyester | Color: Brown - Charcoal (Waterproof) Color: Washed Brown (Non-waterproof) Sizes: 55 - 57 - 59 - 61</t>
+  </si>
+  <si>
+    <t>45% Cotton - 55% Polyester | Color: Brown - Charcoal (Waterproof) Color: Washed Brown (Non-waterproof) Sizes: 55 - 57 - 59 - 61</t>
+  </si>
+  <si>
+    <t>60% Cotton - 40% Polyester | Color: Charcoal - Brown (Waterproof) Color: Washed Brown (Non-waterproof) Sizes: 55 - 57 - 59 - 61</t>
+  </si>
+  <si>
+    <t>100% Polyester | Color: Black - Brown Sizes: S - M - L - XL</t>
+  </si>
+  <si>
+    <t>100% Wool Felt | Color: Grey - Charcoal - Green - Brown Sizes: S - M - L - XL</t>
+  </si>
+  <si>
+    <t>100% Wool Felt | Color: Brown - Black Sizes: S - M - L - XL</t>
+  </si>
+  <si>
+    <t>100% Wool Felt | Color: Green - Navy - Black Sizes: S - M - L - XL</t>
+  </si>
+  <si>
+    <t>100% Wool Felt | Color: Navy - Black - Camel - Grey - Rust Sizes: 55 - 57 - 59 - 61</t>
+  </si>
+  <si>
+    <t>100% Wool Felt | Color: Charcoal - Pink - Grey - Blue - Mustard - Beige Sizes: S - M - L - XL</t>
+  </si>
+  <si>
+    <t>100% Wool Felt | Color: Black - Charcoal - Brown Sizes: S - M - L - XL</t>
+  </si>
+  <si>
+    <t>100% Wool Felt | Color: Navy - Green - Brown - Black - Camel Sizes: 55 - 57 - 59 - 61</t>
+  </si>
+  <si>
+    <t>100% Wool Felt | Color: Black - Camel Sizes: 57 - 59</t>
+  </si>
+  <si>
+    <t>100% Wool Felt | Color: Black - Brown - Navy Sizes: 55 - 57 - 59 - 61</t>
+  </si>
+  <si>
+    <t>100% Wool Felt | Color: Charcoal - Green - Brown - Red - Navy - Camel - Black Sizes: 56 - 58</t>
+  </si>
+  <si>
+    <t>100% Wool Felt | Color: Grey - Beige - Navy - Pink - Green - Rust Sizes: 55 - 57 - 59</t>
+  </si>
+  <si>
+    <t>100% Wool Felt | Color: Navy - Pink - Rust - Red - Green - Grey - Beige Sizes: 57</t>
+  </si>
+  <si>
+    <t>100% Wool Felt | Color: Beige - Grey - Rust - Red - Navy - Pink - Green Sizes: 55 - 57 - 59</t>
+  </si>
+  <si>
+    <t>100% Wool Felt | Color: Grey - Navy - Green - Rust - Red - Beige - Pink Sizes: 57</t>
+  </si>
+  <si>
+    <t>100% Wool Felt | Color: Black Sizes: S - M - L - XL</t>
+  </si>
+  <si>
+    <t>100% Wool Felt | Color: Black Sizes: M - L</t>
+  </si>
+  <si>
+    <t>100% Wool Felt | Color: Black - Navy - Burgundy - Green Sizes: S - M - L - XL</t>
+  </si>
+  <si>
+    <t>100% Acrylic | Color: Beige - Pink - Black - Grey Sizes: 53 - 55 - 57 - 59 - 61</t>
+  </si>
+  <si>
+    <t>100% Acrylic | Color: Beige - Black - Pink - Grey Sizes: One size</t>
+  </si>
+  <si>
+    <t>100% Polyester | Color: White - Beige - Black Sizes: One size (57)</t>
+  </si>
+  <si>
+    <t>100% Polyester | Color: White - Beige - Black Sizes: One size</t>
+  </si>
+  <si>
+    <t>98% Recycled Polyester - 2% Spandex | Color: Beige - Grey Sizes: One size</t>
+  </si>
+  <si>
+    <t>100% Acrylic | Color: Blue - Grey Sizes: One size</t>
+  </si>
+  <si>
+    <t>100% Polyester | Color: Black - Brown - Charcoal Sizes: S - M - L - XL</t>
+  </si>
+  <si>
+    <t>100% Acrylic | Color: Red Sizes: S - M - L - XL</t>
+  </si>
+  <si>
+    <t>72% Acrylic - 25% Nylon - 4% Elasthan | Color: Beige - Grey - Purple - Pink Sizes: One size</t>
+  </si>
+  <si>
+    <t>100% Acrylic | Color: Purple - Pink - Blue Sizes: One size</t>
+  </si>
+  <si>
+    <t>67% Acrylic - 29% Nylon - 4% Elasthan | Color: Grey - Black - Rust Sizes: One size</t>
+  </si>
+  <si>
+    <t>52% Acrylic - 28% Nylon - 28% Polyester | Color: Black - Grey Sizes: One size</t>
+  </si>
+  <si>
+    <t>67% Acrylic - 29% Nylon - 4% Elasthan | Color: Beige - White - Blue - Grey - Pink - Black - Green Sizes: One size</t>
+  </si>
+  <si>
+    <t>100% Acrylic | Color: Beige - Black - Purple Sizes: One size</t>
+  </si>
+  <si>
+    <t>90% Nylon - 10% Polyester | Color: Light Blue - White - Pink - Coral - Orange - Beige - Mustard - Light Green - Green - Black Sizes: One Size</t>
+  </si>
+  <si>
+    <t>90% Nylon - 10% Polyester | Color: Light Blue -White - Pink - Coral - Orange - Beige - Mustard - Light Green - Green - Black Sizes: One size</t>
+  </si>
+  <si>
+    <t>90% Nylon - 10% Polyester | Color: Light Blue - White - Pink - Coral - Orange - Beige - Mustard - Light Green - Green - Black Sizes: One size</t>
+  </si>
+  <si>
+    <t>100% Acrylic | Color: Blue - Black - Mustard - Grey - Red Sizes: One size</t>
+  </si>
+  <si>
+    <t>100% Acrylic | Color: Beige - Khaki - Offwhite - Black - Brown Sizes: One size</t>
+  </si>
+  <si>
+    <t>72% Acrylic - 25% Nylon - 4% Elasthan | Color: Khaki - Navy - Charcoal Sizes: One size</t>
+  </si>
+  <si>
+    <t>70% Acrylic - 30% Nylon | Color: Black - Red - Navy - Blue Sizes: One size</t>
+  </si>
+  <si>
+    <t>100% Acrylic | Color: Black - Red - Navy - Grey Sizes: One size</t>
+  </si>
+  <si>
+    <t>100% Acrylic | Color: Charcoal - Black Sizes: One size</t>
+  </si>
+  <si>
+    <t>100% Acrylic | Color: Black - Charcoal - Khaki - Navy Sizes: One size</t>
+  </si>
+  <si>
+    <t>100% Acrylic | Color: Khaki - Navy Sizes: One size</t>
+  </si>
+  <si>
+    <t>100% Acrylic | Color: Grey - Khaki - Navy Sizes: One size</t>
+  </si>
+  <si>
+    <t>80% Lambswool - 20% Nylon | Color: Navy - Green - Rust Sizes: One size</t>
+  </si>
+  <si>
+    <t>100% Acrylic | Color: Black - Grey Sizes: One size</t>
+  </si>
+  <si>
+    <t>50% Acrylic - 45% Nylon - 5% Wool | Color: Beige - Grey Sizes: One size</t>
+  </si>
+  <si>
+    <t>100% Acrylic | Color: Beige - Mustard - Grey Sizes: One size</t>
+  </si>
+  <si>
+    <t>100% Acrylic | Color: Navy - Black - Mustard - Khaki - Blue Sizes: One size</t>
+  </si>
+  <si>
+    <t>100% Acrylic | Color: Black Sizes: One size - Gloves : One size Neckband/Tour de cou (В±25x35cm)</t>
+  </si>
+  <si>
+    <t>100% Acrylic | Color: Beige - Black - Charcoal Sizes: One size</t>
+  </si>
+  <si>
+    <t>100% Acrylic | Color: Denim - Navy - Black -Offwhite - Grey Sizes: One size</t>
+  </si>
+  <si>
+    <t>100% Acrylic | Color: Denim - Navy - Black -Offwhite - Grey Sizes: One size (160x25cm)</t>
+  </si>
+  <si>
+    <t>100% Acrylic | Color: Mustard - Denim - Offwhite - Black - Pink - Grey - Burgundy Sizes: One size</t>
+  </si>
+  <si>
+    <t>100% Acrylic | Color: Mustard - Denim - Offwhite - Black - Pink - Grey - Burgundy Sizes: One size (180x35cm)</t>
+  </si>
+  <si>
+    <t>30% Wool - 70% Acrylic | Color: Black - Beige - White - Grey Sizes: One size</t>
+  </si>
+  <si>
+    <t>100% Acrylic | Color: Mustard - Purple - Blue - Grey Sizes: One size</t>
+  </si>
+  <si>
+    <t>100% Acrylic | Color: Offwhite - Grey - Black - Taupe Sizes: One size</t>
+  </si>
+  <si>
+    <t>100% Acrylic | Color: White - Black - Grey - Mustard Sizes: One size</t>
+  </si>
+  <si>
+    <t>100% Acrylic | Color: Green - Putty - Grey - Offwhite - Purple - Black Sizes: One size</t>
+  </si>
+  <si>
+    <t>67% Acrylic - 27% Nylon - 3% Spandex - 3% Polyester | Color: Blue - Offwhite Sizes: One size</t>
+  </si>
+  <si>
+    <t>100% Acrylic | Color: Black - Beige - Pink - Blue Sizes: One size</t>
+  </si>
+  <si>
+    <t>30% Wool - 70% Acrylic | Color: Beige - Taupe - Blue - Raspberry - White - Black Sizes: One size</t>
+  </si>
+  <si>
+    <t>30% Wool - 70% Acrylic | Color: Black - Beige - Grey - Offwhite Sizes: One size</t>
+  </si>
+  <si>
+    <t>30% Wool - 70% Acrylic | Color: Beige - Grey Sizes: One size</t>
+  </si>
+  <si>
+    <t>80% Recycled Polyester RecyclГ© 20% Wool/Laine | Color: Pink - Cream - Pearl - Rust - Khaki - Beige - Blue - Black Sizes: One size/Taille unique</t>
+  </si>
+  <si>
+    <t>30% Wool - 70% Acrylic | Color: Denim - Beige - Grey - Taupe - Navy - Offwhite - Black - Pearl - Pink Sizes: One size</t>
+  </si>
+  <si>
+    <t>10% Cotton - 57% Polyester - 33% Acrylic | Color: Charcoal Sizes: M 9,5 - L 10 - XL 10,5</t>
+  </si>
+  <si>
+    <t>80% Acrylic - 20% Nylon | Color: Black - Charcoal - Khaki - Navy Sizes: One size (10)</t>
+  </si>
+  <si>
+    <t>70% Acrylic - 30% Nylon | Color: Navy - Grey - Black Sizes: One size (10)</t>
+  </si>
+  <si>
+    <t>100% Leather | Color: Black Sizes: 7 - 7,5 - 8 - 8,5 - 9 - 9,5 - 10 - 10,5</t>
+  </si>
+  <si>
+    <t>80% Wool - 20% Polyamid | Color: Brown - Black Sizes: 7 - 7,5 - 8 - 8,5 - 9 - 9,5 - 10 - 10,5</t>
+  </si>
+  <si>
+    <t>97% Acrylic - 3% Elasthan | Color: Black Sizes: One size</t>
+  </si>
+  <si>
+    <t>80% Wool - 20% Polyamid | Color: Grey Sizes: S 7' - M 7,5' - L 8' - XL 8,5'</t>
+  </si>
+  <si>
+    <t>97% Acrylic - 3% Elasthan | Color: Grey Sizes: One size</t>
+  </si>
+  <si>
+    <t>80% Acrylic - 20% Nylon | Color: Grey - Khaki - White - Black Sizes: One size (8,5)</t>
+  </si>
+  <si>
+    <t>80% Acrylic - 20% Nylon | Color: Beige - Black - Mustard - Red Sizes: One size (8,5)</t>
+  </si>
+  <si>
+    <t>80% Acrylic - 20% Nylon | Color: Red - Grey - Mustard - Khaki - Black Sizes: One size (8,5)</t>
+  </si>
+  <si>
+    <t>50% Acrylic - 30% Wool - 20% Nylon | Color: Navy - Grey - Charcoal - Black Sizes: One size (8,5)</t>
+  </si>
+  <si>
+    <t>80% Recycled Polyester RecyclГ© 20% Wool/Laine</t>
+  </si>
+  <si>
+    <t xml:space="preserve">94% Polyester - 6% Nylon | Color: Brown - Beige Sizes: from 53 to 63 (pre-order) </t>
+  </si>
+  <si>
+    <t>Grey - Blue - Rust - Burgundy</t>
+  </si>
+  <si>
+    <t>Taupe - Charcoal</t>
+  </si>
+  <si>
+    <t>Beige - Brown</t>
+  </si>
+  <si>
+    <t>Black - Charcoal - Grey</t>
+  </si>
+  <si>
+    <t>Navy - Black - Camel - Grey - Rust</t>
+  </si>
+  <si>
+    <t>Washed Brown (Non_waterproof) Color: Brown - Charcoal (Waterproof)</t>
+  </si>
+  <si>
+    <t>Brown - Charcoal (Waterproof) Color: Washed Brown (Non_waterproof)</t>
+  </si>
+  <si>
+    <t>Charcoal - Brown (Waterproof) Color: Washed Brown (Non_waterproof)</t>
+  </si>
+  <si>
+    <t>Washed Brown (Non_waterproof) - Brown - Charcoal (Waterproof)</t>
+  </si>
+  <si>
+    <t>Brown - Charcoal (Waterproof) - Washed Brown (Non_waterproof)</t>
+  </si>
+  <si>
+    <t>Charcoal - Brown (Waterproof) - Washed Brown (Non_waterproof)</t>
   </si>
 </sst>
 </file>
@@ -1721,7 +1754,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -1836,6 +1869,43 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -1881,10 +1951,16 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1958,8 +2034,8 @@
       <definedName name="ТолькоСимволы"/>
     </definedNames>
     <sheetDataSet>
-      <sheetData sheetId="0"/>
-      <sheetData sheetId="1"/>
+      <sheetData sheetId="0" refreshError="1"/>
+      <sheetData sheetId="1" refreshError="1"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -2265,15 +2341,15 @@
   <sheetPr codeName="Лист1"/>
   <dimension ref="A1:K146"/>
   <sheetViews>
-    <sheetView topLeftCell="C39" workbookViewId="0">
-      <selection activeCell="K111" sqref="K1:K1048576"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:A146"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" outlineLevelCol="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="71.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="169.5703125" hidden="1" customWidth="1"/>
-    <col min="3" max="3" width="54.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="169.5703125" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="3" max="3" width="54.28515625" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="4" max="4" width="36.28515625" customWidth="1"/>
     <col min="5" max="5" width="58.85546875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="23.28515625" hidden="1" customWidth="1" outlineLevel="1"/>
@@ -2281,7 +2357,7 @@
     <col min="11" max="11" width="39.7109375" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" s="1" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2289,23 +2365,23 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>301</v>
+        <v>179</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="F1" s="2" t="s">
         <v>305</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>431</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>432</v>
-      </c>
-      <c r="G1" s="2"/>
-      <c r="H1" s="2"/>
-      <c r="I1" s="2"/>
-      <c r="J1" s="2"/>
+      <c r="G1" s="3"/>
+      <c r="H1" s="3"/>
+      <c r="I1" s="3"/>
+      <c r="J1" s="4"/>
       <c r="K1" s="1" t="s">
-        <v>433</v>
+        <v>306</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
@@ -2313,16 +2389,16 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>3</v>
+        <v>311</v>
       </c>
       <c r="C2" t="s">
-        <v>268</v>
+        <v>146</v>
       </c>
       <c r="D2" t="s">
-        <v>306</v>
+        <v>183</v>
       </c>
       <c r="E2" t="s">
-        <v>409</v>
+        <v>282</v>
       </c>
       <c r="F2" t="str">
         <f>IF(IFERROR(FIND("One size",E2)&gt;=1,FALSE),"One size",E2)</f>
@@ -2351,19 +2427,19 @@
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>5</v>
+        <v>312</v>
       </c>
       <c r="C3" t="s">
-        <v>268</v>
+        <v>146</v>
       </c>
       <c r="D3" t="s">
-        <v>307</v>
+        <v>184</v>
       </c>
       <c r="E3" t="s">
-        <v>409</v>
+        <v>282</v>
       </c>
       <c r="F3" t="str">
         <f t="shared" ref="F3:F66" si="0">IF(IFERROR(FIND("One size",E3)&gt;=1,FALSE),"One size",E3)</f>
@@ -2392,19 +2468,19 @@
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>7</v>
+        <v>313</v>
       </c>
       <c r="C4" t="s">
-        <v>268</v>
+        <v>146</v>
       </c>
       <c r="D4" t="s">
-        <v>308</v>
+        <v>185</v>
       </c>
       <c r="E4" t="s">
-        <v>409</v>
+        <v>282</v>
       </c>
       <c r="F4" t="str">
         <f t="shared" si="0"/>
@@ -2433,19 +2509,19 @@
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>9</v>
+        <v>314</v>
       </c>
       <c r="C5" t="s">
-        <v>269</v>
+        <v>147</v>
       </c>
       <c r="D5" t="s">
-        <v>309</v>
+        <v>186</v>
       </c>
       <c r="E5" t="s">
-        <v>409</v>
+        <v>282</v>
       </c>
       <c r="F5" t="str">
         <f t="shared" si="0"/>
@@ -2474,19 +2550,19 @@
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>11</v>
+        <v>315</v>
       </c>
       <c r="C6" t="s">
-        <v>270</v>
+        <v>148</v>
       </c>
       <c r="D6" t="s">
-        <v>310</v>
+        <v>187</v>
       </c>
       <c r="E6" t="s">
-        <v>409</v>
+        <v>282</v>
       </c>
       <c r="F6" t="str">
         <f t="shared" si="0"/>
@@ -2515,19 +2591,19 @@
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="B7" t="s">
-        <v>13</v>
+        <v>316</v>
       </c>
       <c r="C7" t="s">
-        <v>271</v>
+        <v>149</v>
       </c>
       <c r="D7" t="s">
-        <v>311</v>
+        <v>188</v>
       </c>
       <c r="E7" t="s">
-        <v>409</v>
+        <v>282</v>
       </c>
       <c r="F7" t="str">
         <f t="shared" si="0"/>
@@ -2556,19 +2632,19 @@
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>266</v>
+        <v>145</v>
       </c>
       <c r="B8" t="s">
-        <v>267</v>
+        <v>317</v>
       </c>
       <c r="C8" t="s">
-        <v>272</v>
+        <v>150</v>
       </c>
       <c r="D8" t="s">
-        <v>312</v>
+        <v>189</v>
       </c>
       <c r="E8" t="s">
-        <v>410</v>
+        <v>283</v>
       </c>
       <c r="F8" t="str">
         <f t="shared" si="0"/>
@@ -2597,19 +2673,19 @@
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>14</v>
+        <v>318</v>
       </c>
       <c r="C9" t="s">
-        <v>271</v>
+        <v>154</v>
       </c>
       <c r="D9" t="s">
-        <v>313</v>
+        <v>441</v>
       </c>
       <c r="E9" t="s">
-        <v>409</v>
+        <v>282</v>
       </c>
       <c r="F9" t="str">
         <f t="shared" si="0"/>
@@ -2638,19 +2714,19 @@
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>14</v>
+        <v>319</v>
       </c>
       <c r="C10" t="s">
-        <v>271</v>
+        <v>154</v>
       </c>
       <c r="D10" t="s">
-        <v>313</v>
+        <v>442</v>
       </c>
       <c r="E10" t="s">
-        <v>409</v>
+        <v>282</v>
       </c>
       <c r="F10" t="str">
         <f t="shared" si="0"/>
@@ -2679,19 +2755,19 @@
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>14</v>
+        <v>320</v>
       </c>
       <c r="C11" t="s">
-        <v>271</v>
+        <v>149</v>
       </c>
       <c r="D11" t="s">
-        <v>313</v>
+        <v>190</v>
       </c>
       <c r="E11" t="s">
-        <v>409</v>
+        <v>282</v>
       </c>
       <c r="F11" t="str">
         <f t="shared" si="0"/>
@@ -2720,19 +2796,19 @@
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>14</v>
+        <v>320</v>
       </c>
       <c r="C12" t="s">
-        <v>271</v>
+        <v>149</v>
       </c>
       <c r="D12" t="s">
-        <v>313</v>
+        <v>190</v>
       </c>
       <c r="E12" t="s">
-        <v>409</v>
+        <v>282</v>
       </c>
       <c r="F12" t="str">
         <f t="shared" si="0"/>
@@ -2761,19 +2837,19 @@
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>14</v>
+        <v>320</v>
       </c>
       <c r="C13" t="s">
-        <v>271</v>
+        <v>149</v>
       </c>
       <c r="D13" t="s">
-        <v>313</v>
+        <v>190</v>
       </c>
       <c r="E13" t="s">
-        <v>409</v>
+        <v>282</v>
       </c>
       <c r="F13" t="str">
         <f t="shared" si="0"/>
@@ -2802,19 +2878,19 @@
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>21</v>
+        <v>321</v>
       </c>
       <c r="C14" t="s">
-        <v>271</v>
+        <v>149</v>
       </c>
       <c r="D14" t="s">
-        <v>314</v>
+        <v>191</v>
       </c>
       <c r="E14" t="s">
-        <v>409</v>
+        <v>282</v>
       </c>
       <c r="F14" t="str">
         <f t="shared" si="0"/>
@@ -2843,19 +2919,19 @@
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>23</v>
+        <v>322</v>
       </c>
       <c r="C15" t="s">
-        <v>271</v>
+        <v>149</v>
       </c>
       <c r="D15" t="s">
-        <v>315</v>
+        <v>192</v>
       </c>
       <c r="E15" t="s">
-        <v>409</v>
+        <v>282</v>
       </c>
       <c r="F15" t="str">
         <f t="shared" si="0"/>
@@ -2884,19 +2960,19 @@
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>25</v>
+        <v>323</v>
       </c>
       <c r="C16" t="s">
-        <v>273</v>
+        <v>151</v>
       </c>
       <c r="D16" t="s">
-        <v>316</v>
+        <v>193</v>
       </c>
       <c r="E16" t="s">
-        <v>409</v>
+        <v>282</v>
       </c>
       <c r="F16" t="str">
         <f t="shared" si="0"/>
@@ -2925,19 +3001,19 @@
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>27</v>
+        <v>324</v>
       </c>
       <c r="C17" t="s">
-        <v>269</v>
+        <v>147</v>
       </c>
       <c r="D17" t="s">
-        <v>317</v>
+        <v>194</v>
       </c>
       <c r="E17" t="s">
-        <v>409</v>
+        <v>282</v>
       </c>
       <c r="F17" t="str">
         <f t="shared" si="0"/>
@@ -2966,19 +3042,19 @@
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>28</v>
+        <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>29</v>
+        <v>325</v>
       </c>
       <c r="C18" t="s">
-        <v>274</v>
+        <v>152</v>
       </c>
       <c r="D18" t="s">
-        <v>314</v>
+        <v>191</v>
       </c>
       <c r="E18" t="s">
-        <v>409</v>
+        <v>282</v>
       </c>
       <c r="F18" t="str">
         <f t="shared" si="0"/>
@@ -3007,19 +3083,19 @@
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>31</v>
+        <v>326</v>
       </c>
       <c r="C19" t="s">
-        <v>273</v>
+        <v>151</v>
       </c>
       <c r="D19" t="s">
-        <v>318</v>
+        <v>195</v>
       </c>
       <c r="E19" t="s">
-        <v>409</v>
+        <v>282</v>
       </c>
       <c r="F19" t="str">
         <f t="shared" si="0"/>
@@ -3048,19 +3124,19 @@
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>32</v>
+        <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>33</v>
+        <v>327</v>
       </c>
       <c r="C20" t="s">
-        <v>302</v>
+        <v>180</v>
       </c>
       <c r="D20" t="s">
-        <v>319</v>
+        <v>196</v>
       </c>
       <c r="E20" t="s">
-        <v>409</v>
+        <v>282</v>
       </c>
       <c r="F20" t="str">
         <f t="shared" si="0"/>
@@ -3089,19 +3165,19 @@
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>34</v>
+        <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>35</v>
+        <v>328</v>
       </c>
       <c r="C21" t="s">
-        <v>275</v>
+        <v>180</v>
       </c>
       <c r="D21" t="s">
-        <v>320</v>
+        <v>443</v>
       </c>
       <c r="E21" t="s">
-        <v>409</v>
+        <v>282</v>
       </c>
       <c r="F21" t="str">
         <f t="shared" si="0"/>
@@ -3130,19 +3206,19 @@
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>36</v>
+        <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>35</v>
+        <v>329</v>
       </c>
       <c r="C22" t="s">
-        <v>275</v>
+        <v>153</v>
       </c>
       <c r="D22" t="s">
-        <v>320</v>
+        <v>197</v>
       </c>
       <c r="E22" t="s">
-        <v>409</v>
+        <v>282</v>
       </c>
       <c r="F22" t="str">
         <f t="shared" si="0"/>
@@ -3171,19 +3247,19 @@
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>37</v>
+        <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>38</v>
+        <v>330</v>
       </c>
       <c r="C23" t="s">
-        <v>275</v>
+        <v>153</v>
       </c>
       <c r="D23" t="s">
-        <v>321</v>
+        <v>198</v>
       </c>
       <c r="E23" t="s">
-        <v>409</v>
+        <v>282</v>
       </c>
       <c r="F23" t="str">
         <f t="shared" si="0"/>
@@ -3212,19 +3288,19 @@
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>39</v>
+        <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>40</v>
+        <v>331</v>
       </c>
       <c r="C24" t="s">
-        <v>275</v>
+        <v>153</v>
       </c>
       <c r="D24" t="s">
-        <v>322</v>
+        <v>199</v>
       </c>
       <c r="E24" t="s">
-        <v>409</v>
+        <v>282</v>
       </c>
       <c r="F24" t="str">
         <f t="shared" si="0"/>
@@ -3253,19 +3329,19 @@
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>41</v>
+        <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>42</v>
+        <v>332</v>
       </c>
       <c r="C25" t="s">
-        <v>275</v>
+        <v>153</v>
       </c>
       <c r="D25" t="s">
-        <v>323</v>
+        <v>200</v>
       </c>
       <c r="E25" t="s">
-        <v>409</v>
+        <v>282</v>
       </c>
       <c r="F25" t="str">
         <f t="shared" si="0"/>
@@ -3294,19 +3370,19 @@
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>43</v>
+        <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>44</v>
+        <v>333</v>
       </c>
       <c r="C26" t="s">
-        <v>275</v>
+        <v>153</v>
       </c>
       <c r="D26" t="s">
-        <v>324</v>
+        <v>201</v>
       </c>
       <c r="E26" t="s">
-        <v>409</v>
+        <v>282</v>
       </c>
       <c r="F26" t="str">
         <f t="shared" si="0"/>
@@ -3335,19 +3411,19 @@
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>45</v>
+        <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>46</v>
+        <v>334</v>
       </c>
       <c r="C27" t="s">
-        <v>275</v>
+        <v>153</v>
       </c>
       <c r="D27" t="s">
-        <v>325</v>
+        <v>202</v>
       </c>
       <c r="E27" t="s">
-        <v>409</v>
+        <v>282</v>
       </c>
       <c r="F27" t="str">
         <f t="shared" si="0"/>
@@ -3376,19 +3452,19 @@
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>47</v>
+        <v>27</v>
       </c>
       <c r="B28" t="s">
-        <v>46</v>
+        <v>334</v>
       </c>
       <c r="C28" t="s">
-        <v>275</v>
+        <v>153</v>
       </c>
       <c r="D28" t="s">
-        <v>325</v>
+        <v>202</v>
       </c>
       <c r="E28" t="s">
-        <v>409</v>
+        <v>282</v>
       </c>
       <c r="F28" t="str">
         <f t="shared" si="0"/>
@@ -3417,19 +3493,19 @@
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>48</v>
+        <v>28</v>
       </c>
       <c r="B29" t="s">
-        <v>49</v>
+        <v>335</v>
       </c>
       <c r="C29" t="s">
-        <v>276</v>
+        <v>154</v>
       </c>
       <c r="D29" t="s">
-        <v>326</v>
+        <v>203</v>
       </c>
       <c r="E29" t="s">
-        <v>411</v>
+        <v>284</v>
       </c>
       <c r="F29" t="str">
         <f t="shared" si="0"/>
@@ -3458,19 +3534,19 @@
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>50</v>
+        <v>29</v>
       </c>
       <c r="B30" t="s">
-        <v>51</v>
+        <v>336</v>
       </c>
       <c r="C30" t="s">
-        <v>276</v>
+        <v>154</v>
       </c>
       <c r="D30" t="s">
-        <v>327</v>
+        <v>204</v>
       </c>
       <c r="E30" t="s">
-        <v>411</v>
+        <v>284</v>
       </c>
       <c r="F30" t="str">
         <f t="shared" si="0"/>
@@ -3499,19 +3575,19 @@
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>52</v>
+        <v>30</v>
       </c>
       <c r="B31" t="s">
-        <v>53</v>
+        <v>337</v>
       </c>
       <c r="C31" t="s">
-        <v>303</v>
+        <v>181</v>
       </c>
       <c r="D31" t="s">
-        <v>315</v>
+        <v>192</v>
       </c>
       <c r="E31" t="s">
-        <v>411</v>
+        <v>284</v>
       </c>
       <c r="F31" t="str">
         <f t="shared" si="0"/>
@@ -3540,19 +3616,19 @@
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>54</v>
+        <v>31</v>
       </c>
       <c r="B32" t="s">
-        <v>55</v>
+        <v>338</v>
       </c>
       <c r="C32" t="s">
-        <v>303</v>
+        <v>181</v>
       </c>
       <c r="D32" t="s">
-        <v>328</v>
+        <v>205</v>
       </c>
       <c r="E32" t="s">
-        <v>411</v>
+        <v>284</v>
       </c>
       <c r="F32" t="str">
         <f t="shared" si="0"/>
@@ -3581,19 +3657,19 @@
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>56</v>
+        <v>32</v>
       </c>
       <c r="B33" t="s">
-        <v>57</v>
+        <v>339</v>
       </c>
       <c r="C33" t="s">
-        <v>273</v>
+        <v>151</v>
       </c>
       <c r="D33" t="s">
-        <v>329</v>
+        <v>206</v>
       </c>
       <c r="E33" t="s">
-        <v>412</v>
+        <v>285</v>
       </c>
       <c r="F33" t="str">
         <f t="shared" si="0"/>
@@ -3622,19 +3698,19 @@
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>58</v>
+        <v>33</v>
       </c>
       <c r="B34" t="s">
-        <v>59</v>
+        <v>340</v>
       </c>
       <c r="C34" t="s">
-        <v>277</v>
+        <v>155</v>
       </c>
       <c r="D34" t="s">
-        <v>330</v>
+        <v>207</v>
       </c>
       <c r="E34" t="s">
-        <v>411</v>
+        <v>284</v>
       </c>
       <c r="F34" t="str">
         <f t="shared" si="0"/>
@@ -3663,19 +3739,19 @@
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>60</v>
+        <v>34</v>
       </c>
       <c r="B35" t="s">
-        <v>61</v>
+        <v>341</v>
       </c>
       <c r="C35" t="s">
-        <v>273</v>
+        <v>151</v>
       </c>
       <c r="D35" t="s">
-        <v>331</v>
+        <v>208</v>
       </c>
       <c r="E35" t="s">
-        <v>411</v>
+        <v>284</v>
       </c>
       <c r="F35" t="str">
         <f t="shared" si="0"/>
@@ -3704,19 +3780,19 @@
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>62</v>
+        <v>35</v>
       </c>
       <c r="B36" t="s">
-        <v>63</v>
+        <v>342</v>
       </c>
       <c r="C36" t="s">
-        <v>278</v>
+        <v>163</v>
       </c>
       <c r="D36" t="s">
-        <v>332</v>
+        <v>212</v>
       </c>
       <c r="E36" t="s">
-        <v>411</v>
+        <v>284</v>
       </c>
       <c r="F36" t="str">
         <f t="shared" si="0"/>
@@ -3745,19 +3821,19 @@
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>64</v>
+        <v>36</v>
       </c>
       <c r="B37" t="s">
-        <v>63</v>
+        <v>343</v>
       </c>
       <c r="C37" t="s">
-        <v>278</v>
+        <v>163</v>
       </c>
       <c r="D37" t="s">
-        <v>332</v>
+        <v>213</v>
       </c>
       <c r="E37" t="s">
-        <v>411</v>
+        <v>284</v>
       </c>
       <c r="F37" t="str">
         <f t="shared" si="0"/>
@@ -3786,19 +3862,19 @@
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>65</v>
+        <v>37</v>
       </c>
       <c r="B38" t="s">
-        <v>63</v>
+        <v>440</v>
       </c>
       <c r="C38" t="s">
-        <v>278</v>
+        <v>180</v>
       </c>
       <c r="D38" t="s">
-        <v>332</v>
+        <v>196</v>
       </c>
       <c r="E38" t="s">
-        <v>411</v>
+        <v>284</v>
       </c>
       <c r="F38" t="str">
         <f t="shared" si="0"/>
@@ -3827,19 +3903,19 @@
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>66</v>
+        <v>38</v>
       </c>
       <c r="B39" t="s">
-        <v>63</v>
+        <v>344</v>
       </c>
       <c r="C39" t="s">
-        <v>278</v>
+        <v>155</v>
       </c>
       <c r="D39" t="s">
-        <v>332</v>
+        <v>444</v>
       </c>
       <c r="E39" t="s">
-        <v>411</v>
+        <v>284</v>
       </c>
       <c r="F39" t="str">
         <f t="shared" si="0"/>
@@ -3868,19 +3944,19 @@
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>67</v>
+        <v>39</v>
       </c>
       <c r="B40" t="s">
-        <v>63</v>
+        <v>345</v>
       </c>
       <c r="C40" t="s">
-        <v>278</v>
+        <v>156</v>
       </c>
       <c r="D40" t="s">
-        <v>332</v>
+        <v>209</v>
       </c>
       <c r="E40" t="s">
-        <v>411</v>
+        <v>284</v>
       </c>
       <c r="F40" t="str">
         <f t="shared" si="0"/>
@@ -3909,19 +3985,19 @@
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>68</v>
+        <v>40</v>
       </c>
       <c r="B41" t="s">
-        <v>69</v>
+        <v>346</v>
       </c>
       <c r="C41" t="s">
-        <v>279</v>
+        <v>157</v>
       </c>
       <c r="D41" t="s">
-        <v>333</v>
+        <v>210</v>
       </c>
       <c r="E41" t="s">
-        <v>413</v>
+        <v>286</v>
       </c>
       <c r="F41" t="str">
         <f t="shared" si="0"/>
@@ -3950,19 +4026,19 @@
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>70</v>
+        <v>41</v>
       </c>
       <c r="B42" t="s">
-        <v>71</v>
+        <v>347</v>
       </c>
       <c r="C42" t="s">
-        <v>279</v>
+        <v>157</v>
       </c>
       <c r="D42" t="s">
-        <v>334</v>
+        <v>211</v>
       </c>
       <c r="E42" t="s">
-        <v>411</v>
+        <v>284</v>
       </c>
       <c r="F42" t="str">
         <f t="shared" si="0"/>
@@ -3991,19 +4067,19 @@
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>72</v>
+        <v>42</v>
       </c>
       <c r="B43" t="s">
-        <v>73</v>
+        <v>348</v>
       </c>
       <c r="C43" t="s">
-        <v>280</v>
+        <v>158</v>
       </c>
       <c r="D43" t="s">
-        <v>335</v>
+        <v>212</v>
       </c>
       <c r="E43" t="s">
-        <v>414</v>
+        <v>287</v>
       </c>
       <c r="F43" t="str">
         <f t="shared" si="0"/>
@@ -4032,19 +4108,19 @@
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>74</v>
+        <v>43</v>
       </c>
       <c r="B44" t="s">
-        <v>75</v>
+        <v>349</v>
       </c>
       <c r="C44" t="s">
-        <v>273</v>
+        <v>151</v>
       </c>
       <c r="D44" t="s">
-        <v>336</v>
+        <v>213</v>
       </c>
       <c r="E44" t="s">
-        <v>414</v>
+        <v>287</v>
       </c>
       <c r="F44" t="str">
         <f t="shared" si="0"/>
@@ -4073,19 +4149,19 @@
     </row>
     <row r="45" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>76</v>
+        <v>44</v>
       </c>
       <c r="B45" t="s">
-        <v>77</v>
+        <v>350</v>
       </c>
       <c r="C45" t="s">
-        <v>274</v>
+        <v>152</v>
       </c>
       <c r="D45" t="s">
-        <v>337</v>
+        <v>214</v>
       </c>
       <c r="E45" t="s">
-        <v>410</v>
+        <v>283</v>
       </c>
       <c r="F45" t="str">
         <f t="shared" si="0"/>
@@ -4114,19 +4190,19 @@
     </row>
     <row r="46" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>78</v>
+        <v>45</v>
       </c>
       <c r="B46" t="s">
-        <v>79</v>
+        <v>351</v>
       </c>
       <c r="C46" t="s">
-        <v>274</v>
+        <v>152</v>
       </c>
       <c r="D46" t="s">
-        <v>338</v>
+        <v>215</v>
       </c>
       <c r="E46" t="s">
-        <v>414</v>
+        <v>287</v>
       </c>
       <c r="F46" t="str">
         <f t="shared" si="0"/>
@@ -4155,19 +4231,19 @@
     </row>
     <row r="47" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>80</v>
+        <v>46</v>
       </c>
       <c r="B47" t="s">
-        <v>81</v>
+        <v>352</v>
       </c>
       <c r="C47" t="s">
-        <v>281</v>
+        <v>159</v>
       </c>
       <c r="D47" t="s">
-        <v>339</v>
+        <v>216</v>
       </c>
       <c r="E47" t="s">
-        <v>410</v>
+        <v>283</v>
       </c>
       <c r="F47" t="str">
         <f t="shared" si="0"/>
@@ -4196,19 +4272,19 @@
     </row>
     <row r="48" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>82</v>
+        <v>47</v>
       </c>
       <c r="B48" t="s">
-        <v>83</v>
+        <v>353</v>
       </c>
       <c r="C48" t="s">
-        <v>282</v>
+        <v>160</v>
       </c>
       <c r="D48" t="s">
-        <v>340</v>
+        <v>446</v>
       </c>
       <c r="E48" t="s">
-        <v>412</v>
+        <v>285</v>
       </c>
       <c r="F48" t="str">
         <f t="shared" si="0"/>
@@ -4237,19 +4313,19 @@
     </row>
     <row r="49" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>84</v>
+        <v>48</v>
       </c>
       <c r="B49" t="s">
-        <v>85</v>
+        <v>354</v>
       </c>
       <c r="C49" t="s">
-        <v>281</v>
+        <v>159</v>
       </c>
       <c r="D49" t="s">
-        <v>341</v>
+        <v>217</v>
       </c>
       <c r="E49" t="s">
-        <v>410</v>
+        <v>283</v>
       </c>
       <c r="F49" t="str">
         <f t="shared" si="0"/>
@@ -4278,19 +4354,19 @@
     </row>
     <row r="50" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>86</v>
+        <v>49</v>
       </c>
       <c r="B50" t="s">
-        <v>87</v>
+        <v>355</v>
       </c>
       <c r="C50" t="s">
-        <v>273</v>
+        <v>151</v>
       </c>
       <c r="D50" t="s">
-        <v>342</v>
+        <v>218</v>
       </c>
       <c r="E50" t="s">
-        <v>415</v>
+        <v>288</v>
       </c>
       <c r="F50" t="str">
         <f t="shared" si="0"/>
@@ -4319,19 +4395,19 @@
     </row>
     <row r="51" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>88</v>
+        <v>50</v>
       </c>
       <c r="B51" t="s">
-        <v>89</v>
+        <v>356</v>
       </c>
       <c r="C51" t="s">
-        <v>283</v>
+        <v>161</v>
       </c>
       <c r="D51" t="s">
-        <v>343</v>
+        <v>219</v>
       </c>
       <c r="E51" t="s">
-        <v>416</v>
+        <v>289</v>
       </c>
       <c r="F51" t="str">
         <f t="shared" si="0"/>
@@ -4360,19 +4436,19 @@
     </row>
     <row r="52" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>90</v>
+        <v>51</v>
       </c>
       <c r="B52" t="s">
-        <v>91</v>
+        <v>357</v>
       </c>
       <c r="C52" t="s">
-        <v>282</v>
+        <v>160</v>
       </c>
       <c r="D52" t="s">
-        <v>344</v>
+        <v>447</v>
       </c>
       <c r="E52" t="s">
-        <v>416</v>
+        <v>289</v>
       </c>
       <c r="F52" t="str">
         <f t="shared" si="0"/>
@@ -4401,19 +4477,19 @@
     </row>
     <row r="53" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>92</v>
+        <v>52</v>
       </c>
       <c r="B53" t="s">
-        <v>93</v>
+        <v>358</v>
       </c>
       <c r="C53" t="s">
-        <v>284</v>
+        <v>162</v>
       </c>
       <c r="D53" t="s">
-        <v>344</v>
+        <v>447</v>
       </c>
       <c r="E53" t="s">
-        <v>416</v>
+        <v>289</v>
       </c>
       <c r="F53" t="str">
         <f t="shared" si="0"/>
@@ -4442,19 +4518,19 @@
     </row>
     <row r="54" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>94</v>
+        <v>53</v>
       </c>
       <c r="B54" t="s">
-        <v>95</v>
+        <v>359</v>
       </c>
       <c r="C54" t="s">
-        <v>282</v>
+        <v>160</v>
       </c>
       <c r="D54" t="s">
-        <v>345</v>
+        <v>448</v>
       </c>
       <c r="E54" t="s">
-        <v>416</v>
+        <v>289</v>
       </c>
       <c r="F54" t="str">
         <f t="shared" si="0"/>
@@ -4483,19 +4559,19 @@
     </row>
     <row r="55" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>96</v>
+        <v>54</v>
       </c>
       <c r="B55" t="s">
-        <v>97</v>
+        <v>360</v>
       </c>
       <c r="C55" t="s">
-        <v>285</v>
+        <v>163</v>
       </c>
       <c r="D55" t="s">
-        <v>343</v>
+        <v>219</v>
       </c>
       <c r="E55" t="s">
-        <v>410</v>
+        <v>283</v>
       </c>
       <c r="F55" t="str">
         <f t="shared" si="0"/>
@@ -4524,19 +4600,19 @@
     </row>
     <row r="56" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>98</v>
+        <v>55</v>
       </c>
       <c r="B56" t="s">
-        <v>99</v>
+        <v>361</v>
       </c>
       <c r="C56" t="s">
-        <v>286</v>
+        <v>164</v>
       </c>
       <c r="D56" t="s">
-        <v>346</v>
+        <v>220</v>
       </c>
       <c r="E56" t="s">
-        <v>410</v>
+        <v>283</v>
       </c>
       <c r="F56" t="str">
         <f t="shared" si="0"/>
@@ -4565,19 +4641,19 @@
     </row>
     <row r="57" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>100</v>
+        <v>56</v>
       </c>
       <c r="B57" t="s">
-        <v>101</v>
+        <v>362</v>
       </c>
       <c r="C57" t="s">
-        <v>286</v>
+        <v>164</v>
       </c>
       <c r="D57" t="s">
-        <v>347</v>
+        <v>221</v>
       </c>
       <c r="E57" t="s">
-        <v>410</v>
+        <v>283</v>
       </c>
       <c r="F57" t="str">
         <f t="shared" si="0"/>
@@ -4606,19 +4682,19 @@
     </row>
     <row r="58" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>102</v>
+        <v>57</v>
       </c>
       <c r="B58" t="s">
-        <v>103</v>
+        <v>363</v>
       </c>
       <c r="C58" t="s">
-        <v>286</v>
+        <v>164</v>
       </c>
       <c r="D58" t="s">
-        <v>348</v>
+        <v>222</v>
       </c>
       <c r="E58" t="s">
-        <v>410</v>
+        <v>283</v>
       </c>
       <c r="F58" t="str">
         <f t="shared" si="0"/>
@@ -4647,19 +4723,19 @@
     </row>
     <row r="59" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>104</v>
+        <v>58</v>
       </c>
       <c r="B59" t="s">
-        <v>105</v>
+        <v>364</v>
       </c>
       <c r="C59" t="s">
-        <v>286</v>
+        <v>164</v>
       </c>
       <c r="D59" t="s">
-        <v>349</v>
+        <v>445</v>
       </c>
       <c r="E59" t="s">
-        <v>410</v>
+        <v>283</v>
       </c>
       <c r="F59" t="str">
         <f t="shared" si="0"/>
@@ -4688,19 +4764,19 @@
     </row>
     <row r="60" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>106</v>
+        <v>59</v>
       </c>
       <c r="B60" t="s">
-        <v>105</v>
+        <v>365</v>
       </c>
       <c r="C60" t="s">
-        <v>286</v>
+        <v>164</v>
       </c>
       <c r="D60" t="s">
-        <v>349</v>
+        <v>223</v>
       </c>
       <c r="E60" t="s">
-        <v>410</v>
+        <v>283</v>
       </c>
       <c r="F60" t="str">
         <f t="shared" si="0"/>
@@ -4729,19 +4805,19 @@
     </row>
     <row r="61" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>107</v>
+        <v>60</v>
       </c>
       <c r="B61" t="s">
-        <v>108</v>
+        <v>366</v>
       </c>
       <c r="C61" t="s">
-        <v>286</v>
+        <v>164</v>
       </c>
       <c r="D61" t="s">
-        <v>350</v>
+        <v>224</v>
       </c>
       <c r="E61" t="s">
-        <v>410</v>
+        <v>283</v>
       </c>
       <c r="F61" t="str">
         <f t="shared" si="0"/>
@@ -4770,19 +4846,19 @@
     </row>
     <row r="62" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>109</v>
+        <v>61</v>
       </c>
       <c r="B62" t="s">
-        <v>110</v>
+        <v>367</v>
       </c>
       <c r="C62" t="s">
-        <v>286</v>
+        <v>164</v>
       </c>
       <c r="D62" t="s">
-        <v>351</v>
+        <v>225</v>
       </c>
       <c r="E62" t="s">
-        <v>416</v>
+        <v>289</v>
       </c>
       <c r="F62" t="str">
         <f t="shared" si="0"/>
@@ -4811,19 +4887,19 @@
     </row>
     <row r="63" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>111</v>
+        <v>62</v>
       </c>
       <c r="B63" t="s">
-        <v>112</v>
+        <v>368</v>
       </c>
       <c r="C63" t="s">
-        <v>286</v>
+        <v>164</v>
       </c>
       <c r="D63" t="s">
-        <v>352</v>
+        <v>226</v>
       </c>
       <c r="E63" t="s">
-        <v>412</v>
+        <v>285</v>
       </c>
       <c r="F63" t="str">
         <f t="shared" si="0"/>
@@ -4852,19 +4928,19 @@
     </row>
     <row r="64" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>113</v>
+        <v>63</v>
       </c>
       <c r="B64" t="s">
-        <v>114</v>
+        <v>369</v>
       </c>
       <c r="C64" t="s">
-        <v>286</v>
+        <v>164</v>
       </c>
       <c r="D64" t="s">
-        <v>353</v>
+        <v>227</v>
       </c>
       <c r="E64" t="s">
-        <v>416</v>
+        <v>289</v>
       </c>
       <c r="F64" t="str">
         <f t="shared" si="0"/>
@@ -4893,19 +4969,19 @@
     </row>
     <row r="65" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>115</v>
+        <v>64</v>
       </c>
       <c r="B65" t="s">
-        <v>116</v>
+        <v>370</v>
       </c>
       <c r="C65" t="s">
-        <v>286</v>
+        <v>164</v>
       </c>
       <c r="D65" t="s">
-        <v>354</v>
+        <v>228</v>
       </c>
       <c r="E65" t="s">
-        <v>417</v>
+        <v>290</v>
       </c>
       <c r="F65" t="str">
         <f t="shared" si="0"/>
@@ -4934,19 +5010,19 @@
     </row>
     <row r="66" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>117</v>
+        <v>65</v>
       </c>
       <c r="B66" t="s">
-        <v>118</v>
+        <v>371</v>
       </c>
       <c r="C66" t="s">
-        <v>286</v>
+        <v>164</v>
       </c>
       <c r="D66" t="s">
-        <v>355</v>
+        <v>229</v>
       </c>
       <c r="E66" t="s">
-        <v>418</v>
+        <v>291</v>
       </c>
       <c r="F66" t="str">
         <f t="shared" si="0"/>
@@ -4975,19 +5051,19 @@
     </row>
     <row r="67" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>119</v>
+        <v>66</v>
       </c>
       <c r="B67" t="s">
-        <v>120</v>
+        <v>372</v>
       </c>
       <c r="C67" t="s">
-        <v>286</v>
+        <v>164</v>
       </c>
       <c r="D67" t="s">
-        <v>356</v>
+        <v>230</v>
       </c>
       <c r="E67" t="s">
-        <v>419</v>
+        <v>292</v>
       </c>
       <c r="F67" t="str">
         <f t="shared" ref="F67:F130" si="2">IF(IFERROR(FIND("One size",E67)&gt;=1,FALSE),"One size",E67)</f>
@@ -5016,19 +5092,19 @@
     </row>
     <row r="68" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>121</v>
+        <v>67</v>
       </c>
       <c r="B68" t="s">
-        <v>122</v>
+        <v>373</v>
       </c>
       <c r="C68" t="s">
-        <v>286</v>
+        <v>164</v>
       </c>
       <c r="D68" t="s">
-        <v>357</v>
+        <v>231</v>
       </c>
       <c r="E68" t="s">
-        <v>418</v>
+        <v>291</v>
       </c>
       <c r="F68" t="str">
         <f t="shared" si="2"/>
@@ -5057,19 +5133,19 @@
     </row>
     <row r="69" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>123</v>
+        <v>68</v>
       </c>
       <c r="B69" t="s">
-        <v>124</v>
+        <v>374</v>
       </c>
       <c r="C69" t="s">
-        <v>286</v>
+        <v>164</v>
       </c>
       <c r="D69" t="s">
-        <v>358</v>
+        <v>232</v>
       </c>
       <c r="E69" t="s">
-        <v>419</v>
+        <v>292</v>
       </c>
       <c r="F69" t="str">
         <f t="shared" si="2"/>
@@ -5098,19 +5174,19 @@
     </row>
     <row r="70" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>125</v>
+        <v>69</v>
       </c>
       <c r="B70" t="s">
-        <v>126</v>
+        <v>375</v>
       </c>
       <c r="C70" t="s">
-        <v>286</v>
+        <v>164</v>
       </c>
       <c r="D70" t="s">
-        <v>359</v>
+        <v>233</v>
       </c>
       <c r="E70" t="s">
-        <v>410</v>
+        <v>283</v>
       </c>
       <c r="F70" t="str">
         <f t="shared" si="2"/>
@@ -5139,19 +5215,19 @@
     </row>
     <row r="71" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>127</v>
+        <v>70</v>
       </c>
       <c r="B71" t="s">
-        <v>128</v>
+        <v>376</v>
       </c>
       <c r="C71" t="s">
-        <v>286</v>
+        <v>164</v>
       </c>
       <c r="D71" t="s">
-        <v>359</v>
+        <v>233</v>
       </c>
       <c r="E71" t="s">
-        <v>415</v>
+        <v>288</v>
       </c>
       <c r="F71" t="str">
         <f t="shared" si="2"/>
@@ -5180,19 +5256,19 @@
     </row>
     <row r="72" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>129</v>
+        <v>71</v>
       </c>
       <c r="B72" t="s">
-        <v>126</v>
+        <v>375</v>
       </c>
       <c r="C72" t="s">
-        <v>286</v>
+        <v>164</v>
       </c>
       <c r="D72" t="s">
-        <v>359</v>
+        <v>233</v>
       </c>
       <c r="E72" t="s">
-        <v>410</v>
+        <v>283</v>
       </c>
       <c r="F72" t="str">
         <f t="shared" si="2"/>
@@ -5221,19 +5297,19 @@
     </row>
     <row r="73" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>130</v>
+        <v>72</v>
       </c>
       <c r="B73" t="s">
-        <v>131</v>
+        <v>377</v>
       </c>
       <c r="C73" t="s">
-        <v>286</v>
+        <v>164</v>
       </c>
       <c r="D73" t="s">
-        <v>360</v>
+        <v>234</v>
       </c>
       <c r="E73" t="s">
-        <v>410</v>
+        <v>283</v>
       </c>
       <c r="F73" t="str">
         <f t="shared" si="2"/>
@@ -5262,19 +5338,19 @@
     </row>
     <row r="74" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>132</v>
+        <v>73</v>
       </c>
       <c r="B74" t="s">
-        <v>126</v>
+        <v>375</v>
       </c>
       <c r="C74" t="s">
-        <v>286</v>
+        <v>164</v>
       </c>
       <c r="D74" t="s">
-        <v>359</v>
+        <v>233</v>
       </c>
       <c r="E74" t="s">
-        <v>410</v>
+        <v>283</v>
       </c>
       <c r="F74" t="str">
         <f t="shared" si="2"/>
@@ -5303,19 +5379,19 @@
     </row>
     <row r="75" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>133</v>
+        <v>74</v>
       </c>
       <c r="B75" t="s">
-        <v>126</v>
+        <v>375</v>
       </c>
       <c r="C75" t="s">
-        <v>286</v>
+        <v>164</v>
       </c>
       <c r="D75" t="s">
-        <v>359</v>
+        <v>233</v>
       </c>
       <c r="E75" t="s">
-        <v>410</v>
+        <v>283</v>
       </c>
       <c r="F75" t="str">
         <f t="shared" si="2"/>
@@ -5344,19 +5420,19 @@
     </row>
     <row r="76" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>134</v>
+        <v>75</v>
       </c>
       <c r="B76" t="s">
-        <v>135</v>
+        <v>378</v>
       </c>
       <c r="C76" t="s">
-        <v>287</v>
+        <v>165</v>
       </c>
       <c r="D76" t="s">
-        <v>361</v>
+        <v>235</v>
       </c>
       <c r="E76" t="s">
-        <v>420</v>
+        <v>293</v>
       </c>
       <c r="F76" t="str">
         <f t="shared" si="2"/>
@@ -5385,19 +5461,19 @@
     </row>
     <row r="77" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>136</v>
+        <v>76</v>
       </c>
       <c r="B77" t="s">
-        <v>137</v>
+        <v>379</v>
       </c>
       <c r="C77" t="s">
-        <v>287</v>
+        <v>165</v>
       </c>
       <c r="D77" t="s">
-        <v>362</v>
+        <v>236</v>
       </c>
       <c r="E77" t="s">
-        <v>411</v>
+        <v>284</v>
       </c>
       <c r="F77" t="str">
         <f t="shared" si="2"/>
@@ -5426,19 +5502,19 @@
     </row>
     <row r="78" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>138</v>
+        <v>77</v>
       </c>
       <c r="B78" t="s">
-        <v>139</v>
+        <v>380</v>
       </c>
       <c r="C78" t="s">
-        <v>285</v>
+        <v>163</v>
       </c>
       <c r="D78" t="s">
-        <v>363</v>
+        <v>237</v>
       </c>
       <c r="E78" t="s">
-        <v>421</v>
+        <v>294</v>
       </c>
       <c r="F78" t="str">
         <f t="shared" si="2"/>
@@ -5467,19 +5543,19 @@
     </row>
     <row r="79" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>140</v>
+        <v>78</v>
       </c>
       <c r="B79" t="s">
-        <v>141</v>
+        <v>381</v>
       </c>
       <c r="C79" t="s">
-        <v>285</v>
+        <v>163</v>
       </c>
       <c r="D79" t="s">
-        <v>363</v>
+        <v>237</v>
       </c>
       <c r="E79" t="s">
-        <v>411</v>
+        <v>284</v>
       </c>
       <c r="F79" t="str">
         <f t="shared" si="2"/>
@@ -5508,19 +5584,19 @@
     </row>
     <row r="80" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>142</v>
+        <v>79</v>
       </c>
       <c r="B80" t="s">
-        <v>143</v>
+        <v>382</v>
       </c>
       <c r="C80" t="s">
-        <v>288</v>
+        <v>166</v>
       </c>
       <c r="D80" t="s">
-        <v>312</v>
+        <v>189</v>
       </c>
       <c r="E80" t="s">
-        <v>411</v>
+        <v>284</v>
       </c>
       <c r="F80" t="str">
         <f t="shared" si="2"/>
@@ -5549,19 +5625,19 @@
     </row>
     <row r="81" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>144</v>
+        <v>80</v>
       </c>
       <c r="B81" t="s">
-        <v>145</v>
+        <v>383</v>
       </c>
       <c r="C81" t="s">
-        <v>287</v>
+        <v>165</v>
       </c>
       <c r="D81" t="s">
-        <v>364</v>
+        <v>238</v>
       </c>
       <c r="E81" t="s">
-        <v>411</v>
+        <v>284</v>
       </c>
       <c r="F81" t="str">
         <f t="shared" si="2"/>
@@ -5590,19 +5666,19 @@
     </row>
     <row r="82" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>146</v>
+        <v>81</v>
       </c>
       <c r="B82" t="s">
-        <v>147</v>
+        <v>384</v>
       </c>
       <c r="C82" t="s">
-        <v>285</v>
+        <v>163</v>
       </c>
       <c r="D82" t="s">
-        <v>365</v>
+        <v>239</v>
       </c>
       <c r="E82" t="s">
-        <v>410</v>
+        <v>283</v>
       </c>
       <c r="F82" t="str">
         <f t="shared" si="2"/>
@@ -5631,19 +5707,19 @@
     </row>
     <row r="83" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>148</v>
+        <v>82</v>
       </c>
       <c r="B83" t="s">
-        <v>149</v>
+        <v>385</v>
       </c>
       <c r="C83" t="s">
-        <v>287</v>
+        <v>165</v>
       </c>
       <c r="D83" t="s">
-        <v>366</v>
+        <v>240</v>
       </c>
       <c r="E83" t="s">
-        <v>410</v>
+        <v>283</v>
       </c>
       <c r="F83" t="str">
         <f t="shared" si="2"/>
@@ -5672,19 +5748,19 @@
     </row>
     <row r="84" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>150</v>
+        <v>83</v>
       </c>
       <c r="B84" t="s">
-        <v>151</v>
+        <v>386</v>
       </c>
       <c r="C84" t="s">
-        <v>289</v>
+        <v>167</v>
       </c>
       <c r="D84" t="s">
-        <v>367</v>
+        <v>241</v>
       </c>
       <c r="E84" t="s">
-        <v>411</v>
+        <v>284</v>
       </c>
       <c r="F84" t="str">
         <f t="shared" si="2"/>
@@ -5713,19 +5789,19 @@
     </row>
     <row r="85" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>152</v>
+        <v>84</v>
       </c>
       <c r="B85" t="s">
-        <v>153</v>
+        <v>387</v>
       </c>
       <c r="C85" t="s">
-        <v>287</v>
+        <v>165</v>
       </c>
       <c r="D85" t="s">
-        <v>368</v>
+        <v>242</v>
       </c>
       <c r="E85" t="s">
-        <v>411</v>
+        <v>284</v>
       </c>
       <c r="F85" t="str">
         <f t="shared" si="2"/>
@@ -5754,19 +5830,19 @@
     </row>
     <row r="86" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>154</v>
+        <v>85</v>
       </c>
       <c r="B86" t="s">
-        <v>155</v>
+        <v>388</v>
       </c>
       <c r="C86" t="s">
-        <v>290</v>
+        <v>168</v>
       </c>
       <c r="D86" t="s">
-        <v>369</v>
+        <v>243</v>
       </c>
       <c r="E86" t="s">
-        <v>411</v>
+        <v>284</v>
       </c>
       <c r="F86" t="str">
         <f t="shared" si="2"/>
@@ -5795,19 +5871,19 @@
     </row>
     <row r="87" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>156</v>
+        <v>86</v>
       </c>
       <c r="B87" t="s">
-        <v>157</v>
+        <v>389</v>
       </c>
       <c r="C87" t="s">
-        <v>291</v>
+        <v>169</v>
       </c>
       <c r="D87" t="s">
-        <v>370</v>
+        <v>244</v>
       </c>
       <c r="E87" t="s">
-        <v>411</v>
+        <v>284</v>
       </c>
       <c r="F87" t="str">
         <f t="shared" si="2"/>
@@ -5836,19 +5912,19 @@
     </row>
     <row r="88" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>158</v>
+        <v>87</v>
       </c>
       <c r="B88" t="s">
-        <v>159</v>
+        <v>390</v>
       </c>
       <c r="C88" t="s">
-        <v>290</v>
+        <v>168</v>
       </c>
       <c r="D88" t="s">
-        <v>371</v>
+        <v>245</v>
       </c>
       <c r="E88" t="s">
-        <v>411</v>
+        <v>284</v>
       </c>
       <c r="F88" t="str">
         <f t="shared" si="2"/>
@@ -5877,19 +5953,19 @@
     </row>
     <row r="89" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>160</v>
+        <v>88</v>
       </c>
       <c r="B89" t="s">
-        <v>161</v>
+        <v>391</v>
       </c>
       <c r="C89" t="s">
-        <v>287</v>
+        <v>165</v>
       </c>
       <c r="D89" t="s">
-        <v>372</v>
+        <v>246</v>
       </c>
       <c r="E89" t="s">
-        <v>411</v>
+        <v>284</v>
       </c>
       <c r="F89" t="str">
         <f t="shared" si="2"/>
@@ -5918,19 +5994,19 @@
     </row>
     <row r="90" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>162</v>
+        <v>89</v>
       </c>
       <c r="B90" t="s">
-        <v>163</v>
+        <v>392</v>
       </c>
       <c r="C90" t="s">
-        <v>292</v>
+        <v>170</v>
       </c>
       <c r="D90" t="s">
-        <v>373</v>
+        <v>247</v>
       </c>
       <c r="E90" t="s">
-        <v>411</v>
+        <v>284</v>
       </c>
       <c r="F90" t="str">
         <f t="shared" si="2"/>
@@ -5959,19 +6035,19 @@
     </row>
     <row r="91" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>164</v>
+        <v>90</v>
       </c>
       <c r="B91" t="s">
-        <v>165</v>
+        <v>393</v>
       </c>
       <c r="C91" t="s">
-        <v>292</v>
+        <v>170</v>
       </c>
       <c r="D91" t="s">
-        <v>374</v>
+        <v>248</v>
       </c>
       <c r="E91" t="s">
-        <v>411</v>
+        <v>284</v>
       </c>
       <c r="F91" t="str">
         <f t="shared" si="2"/>
@@ -6000,19 +6076,19 @@
     </row>
     <row r="92" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>166</v>
+        <v>91</v>
       </c>
       <c r="B92" t="s">
-        <v>167</v>
+        <v>394</v>
       </c>
       <c r="C92" t="s">
-        <v>292</v>
+        <v>170</v>
       </c>
       <c r="D92" t="s">
-        <v>373</v>
+        <v>247</v>
       </c>
       <c r="E92" t="s">
-        <v>411</v>
+        <v>284</v>
       </c>
       <c r="F92" t="str">
         <f t="shared" si="2"/>
@@ -6041,19 +6117,19 @@
     </row>
     <row r="93" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>168</v>
+        <v>92</v>
       </c>
       <c r="B93" t="s">
-        <v>169</v>
+        <v>395</v>
       </c>
       <c r="C93" t="s">
-        <v>287</v>
+        <v>165</v>
       </c>
       <c r="D93" t="s">
-        <v>375</v>
+        <v>249</v>
       </c>
       <c r="E93" t="s">
-        <v>411</v>
+        <v>284</v>
       </c>
       <c r="F93" t="str">
         <f t="shared" si="2"/>
@@ -6082,19 +6158,19 @@
     </row>
     <row r="94" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>170</v>
+        <v>93</v>
       </c>
       <c r="B94" t="s">
-        <v>171</v>
+        <v>396</v>
       </c>
       <c r="C94" t="s">
-        <v>287</v>
+        <v>165</v>
       </c>
       <c r="D94" t="s">
-        <v>376</v>
+        <v>250</v>
       </c>
       <c r="E94" t="s">
-        <v>411</v>
+        <v>284</v>
       </c>
       <c r="F94" t="str">
         <f t="shared" si="2"/>
@@ -6123,19 +6199,19 @@
     </row>
     <row r="95" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>172</v>
+        <v>94</v>
       </c>
       <c r="B95" t="s">
-        <v>173</v>
+        <v>397</v>
       </c>
       <c r="C95" t="s">
-        <v>289</v>
+        <v>167</v>
       </c>
       <c r="D95" t="s">
-        <v>377</v>
+        <v>251</v>
       </c>
       <c r="E95" t="s">
-        <v>411</v>
+        <v>284</v>
       </c>
       <c r="F95" t="str">
         <f t="shared" si="2"/>
@@ -6164,19 +6240,19 @@
     </row>
     <row r="96" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>174</v>
+        <v>95</v>
       </c>
       <c r="B96" t="s">
-        <v>175</v>
+        <v>398</v>
       </c>
       <c r="C96" t="s">
-        <v>293</v>
+        <v>171</v>
       </c>
       <c r="D96" t="s">
-        <v>378</v>
+        <v>252</v>
       </c>
       <c r="E96" t="s">
-        <v>411</v>
+        <v>284</v>
       </c>
       <c r="F96" t="str">
         <f t="shared" si="2"/>
@@ -6205,19 +6281,19 @@
     </row>
     <row r="97" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>176</v>
+        <v>96</v>
       </c>
       <c r="B97" t="s">
-        <v>177</v>
+        <v>399</v>
       </c>
       <c r="C97" t="s">
-        <v>287</v>
+        <v>165</v>
       </c>
       <c r="D97" t="s">
-        <v>379</v>
+        <v>253</v>
       </c>
       <c r="E97" t="s">
-        <v>411</v>
+        <v>284</v>
       </c>
       <c r="F97" t="str">
         <f t="shared" si="2"/>
@@ -6246,19 +6322,19 @@
     </row>
     <row r="98" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
-        <v>178</v>
+        <v>97</v>
       </c>
       <c r="B98" t="s">
-        <v>179</v>
+        <v>400</v>
       </c>
       <c r="C98" t="s">
-        <v>287</v>
+        <v>165</v>
       </c>
       <c r="D98" t="s">
-        <v>380</v>
+        <v>254</v>
       </c>
       <c r="E98" t="s">
-        <v>411</v>
+        <v>284</v>
       </c>
       <c r="F98" t="str">
         <f t="shared" si="2"/>
@@ -6287,19 +6363,19 @@
     </row>
     <row r="99" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
-        <v>180</v>
+        <v>98</v>
       </c>
       <c r="B99" t="s">
-        <v>181</v>
+        <v>401</v>
       </c>
       <c r="C99" t="s">
-        <v>287</v>
+        <v>165</v>
       </c>
       <c r="D99" t="s">
-        <v>381</v>
+        <v>255</v>
       </c>
       <c r="E99" t="s">
-        <v>411</v>
+        <v>284</v>
       </c>
       <c r="F99" t="str">
         <f t="shared" si="2"/>
@@ -6328,19 +6404,19 @@
     </row>
     <row r="100" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
-        <v>182</v>
+        <v>99</v>
       </c>
       <c r="B100" t="s">
-        <v>183</v>
+        <v>402</v>
       </c>
       <c r="C100" t="s">
-        <v>287</v>
+        <v>165</v>
       </c>
       <c r="D100" t="s">
-        <v>382</v>
+        <v>256</v>
       </c>
       <c r="E100" t="s">
-        <v>411</v>
+        <v>284</v>
       </c>
       <c r="F100" t="str">
         <f t="shared" si="2"/>
@@ -6369,19 +6445,19 @@
     </row>
     <row r="101" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
-        <v>184</v>
+        <v>100</v>
       </c>
       <c r="B101" t="s">
-        <v>185</v>
+        <v>403</v>
       </c>
       <c r="C101" t="s">
-        <v>287</v>
+        <v>165</v>
       </c>
       <c r="D101" t="s">
-        <v>383</v>
+        <v>257</v>
       </c>
       <c r="E101" t="s">
-        <v>411</v>
+        <v>284</v>
       </c>
       <c r="F101" t="str">
         <f t="shared" si="2"/>
@@ -6410,19 +6486,19 @@
     </row>
     <row r="102" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
-        <v>186</v>
+        <v>101</v>
       </c>
       <c r="B102" t="s">
-        <v>187</v>
+        <v>404</v>
       </c>
       <c r="C102" t="s">
-        <v>294</v>
+        <v>172</v>
       </c>
       <c r="D102" t="s">
-        <v>384</v>
+        <v>258</v>
       </c>
       <c r="E102" t="s">
-        <v>411</v>
+        <v>284</v>
       </c>
       <c r="F102" t="str">
         <f t="shared" si="2"/>
@@ -6451,19 +6527,19 @@
     </row>
     <row r="103" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
-        <v>188</v>
+        <v>102</v>
       </c>
       <c r="B103" t="s">
-        <v>189</v>
+        <v>405</v>
       </c>
       <c r="C103" t="s">
-        <v>287</v>
+        <v>165</v>
       </c>
       <c r="D103" t="s">
-        <v>370</v>
+        <v>244</v>
       </c>
       <c r="E103" t="s">
-        <v>411</v>
+        <v>284</v>
       </c>
       <c r="F103" t="str">
         <f t="shared" si="2"/>
@@ -6492,19 +6568,19 @@
     </row>
     <row r="104" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
-        <v>190</v>
+        <v>103</v>
       </c>
       <c r="B104" t="s">
-        <v>191</v>
+        <v>406</v>
       </c>
       <c r="C104" t="s">
-        <v>295</v>
+        <v>173</v>
       </c>
       <c r="D104" t="s">
-        <v>312</v>
+        <v>189</v>
       </c>
       <c r="E104" t="s">
-        <v>411</v>
+        <v>284</v>
       </c>
       <c r="F104" t="str">
         <f t="shared" si="2"/>
@@ -6533,19 +6609,19 @@
     </row>
     <row r="105" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
-        <v>192</v>
+        <v>104</v>
       </c>
       <c r="B105" t="s">
-        <v>193</v>
+        <v>407</v>
       </c>
       <c r="C105" t="s">
-        <v>287</v>
+        <v>165</v>
       </c>
       <c r="D105" t="s">
-        <v>385</v>
+        <v>259</v>
       </c>
       <c r="E105" t="s">
-        <v>411</v>
+        <v>284</v>
       </c>
       <c r="F105" t="str">
         <f t="shared" si="2"/>
@@ -6574,19 +6650,19 @@
     </row>
     <row r="106" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
-        <v>194</v>
+        <v>105</v>
       </c>
       <c r="B106" t="s">
-        <v>195</v>
+        <v>408</v>
       </c>
       <c r="C106" t="s">
-        <v>287</v>
+        <v>165</v>
       </c>
       <c r="D106" t="s">
-        <v>386</v>
+        <v>260</v>
       </c>
       <c r="E106" t="s">
-        <v>411</v>
+        <v>284</v>
       </c>
       <c r="F106" t="str">
         <f t="shared" si="2"/>
@@ -6615,19 +6691,19 @@
     </row>
     <row r="107" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
-        <v>196</v>
+        <v>106</v>
       </c>
       <c r="B107" t="s">
-        <v>197</v>
+        <v>409</v>
       </c>
       <c r="C107" t="s">
-        <v>287</v>
+        <v>165</v>
       </c>
       <c r="D107" t="s">
-        <v>359</v>
+        <v>233</v>
       </c>
       <c r="E107" t="s">
-        <v>422</v>
+        <v>295</v>
       </c>
       <c r="F107" t="str">
         <f t="shared" si="2"/>
@@ -6656,19 +6732,19 @@
     </row>
     <row r="108" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
-        <v>198</v>
+        <v>107</v>
       </c>
       <c r="B108" t="s">
-        <v>199</v>
+        <v>410</v>
       </c>
       <c r="C108" t="s">
-        <v>287</v>
+        <v>165</v>
       </c>
       <c r="D108" t="s">
-        <v>387</v>
+        <v>261</v>
       </c>
       <c r="E108" t="s">
-        <v>411</v>
+        <v>284</v>
       </c>
       <c r="F108" t="str">
         <f t="shared" si="2"/>
@@ -6697,19 +6773,19 @@
     </row>
     <row r="109" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
-        <v>200</v>
+        <v>108</v>
       </c>
       <c r="B109" t="s">
-        <v>201</v>
+        <v>411</v>
       </c>
       <c r="C109" t="s">
-        <v>287</v>
+        <v>165</v>
       </c>
       <c r="D109" t="s">
-        <v>388</v>
+        <v>262</v>
       </c>
       <c r="E109" t="s">
-        <v>411</v>
+        <v>284</v>
       </c>
       <c r="F109" t="str">
         <f t="shared" si="2"/>
@@ -6738,19 +6814,19 @@
     </row>
     <row r="110" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
-        <v>202</v>
+        <v>109</v>
       </c>
       <c r="B110" t="s">
-        <v>203</v>
+        <v>412</v>
       </c>
       <c r="C110" t="s">
-        <v>287</v>
+        <v>165</v>
       </c>
       <c r="D110" t="s">
-        <v>388</v>
+        <v>262</v>
       </c>
       <c r="E110" t="s">
-        <v>423</v>
+        <v>296</v>
       </c>
       <c r="F110" t="str">
         <f t="shared" si="2"/>
@@ -6779,19 +6855,19 @@
     </row>
     <row r="111" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
-        <v>204</v>
+        <v>110</v>
       </c>
       <c r="B111" t="s">
-        <v>205</v>
+        <v>413</v>
       </c>
       <c r="C111" t="s">
-        <v>287</v>
+        <v>165</v>
       </c>
       <c r="D111" t="s">
-        <v>389</v>
+        <v>263</v>
       </c>
       <c r="E111" t="s">
-        <v>411</v>
+        <v>284</v>
       </c>
       <c r="F111" t="str">
         <f t="shared" si="2"/>
@@ -6820,19 +6896,19 @@
     </row>
     <row r="112" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
-        <v>206</v>
+        <v>111</v>
       </c>
       <c r="B112" t="s">
-        <v>207</v>
+        <v>414</v>
       </c>
       <c r="C112" t="s">
-        <v>287</v>
+        <v>165</v>
       </c>
       <c r="D112" t="s">
-        <v>389</v>
+        <v>263</v>
       </c>
       <c r="E112" t="s">
-        <v>424</v>
+        <v>297</v>
       </c>
       <c r="F112" t="str">
         <f t="shared" si="2"/>
@@ -6861,19 +6937,19 @@
     </row>
     <row r="113" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
-        <v>208</v>
+        <v>112</v>
       </c>
       <c r="B113" t="s">
-        <v>205</v>
+        <v>413</v>
       </c>
       <c r="C113" t="s">
-        <v>287</v>
+        <v>165</v>
       </c>
       <c r="D113" t="s">
-        <v>389</v>
+        <v>263</v>
       </c>
       <c r="E113" t="s">
-        <v>411</v>
+        <v>284</v>
       </c>
       <c r="F113" t="str">
         <f t="shared" si="2"/>
@@ -6902,19 +6978,19 @@
     </row>
     <row r="114" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
-        <v>209</v>
+        <v>113</v>
       </c>
       <c r="B114" t="s">
-        <v>210</v>
+        <v>415</v>
       </c>
       <c r="C114" t="s">
-        <v>296</v>
+        <v>174</v>
       </c>
       <c r="D114" t="s">
-        <v>390</v>
+        <v>264</v>
       </c>
       <c r="E114" t="s">
-        <v>411</v>
+        <v>284</v>
       </c>
       <c r="F114" t="str">
         <f t="shared" si="2"/>
@@ -6943,19 +7019,19 @@
     </row>
     <row r="115" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
-        <v>211</v>
+        <v>114</v>
       </c>
       <c r="B115" t="s">
-        <v>212</v>
+        <v>416</v>
       </c>
       <c r="C115" t="s">
-        <v>287</v>
+        <v>165</v>
       </c>
       <c r="D115" t="s">
-        <v>391</v>
+        <v>265</v>
       </c>
       <c r="E115" t="s">
-        <v>411</v>
+        <v>284</v>
       </c>
       <c r="F115" t="str">
         <f t="shared" si="2"/>
@@ -6984,19 +7060,19 @@
     </row>
     <row r="116" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
-        <v>213</v>
+        <v>115</v>
       </c>
       <c r="B116" t="s">
-        <v>212</v>
+        <v>416</v>
       </c>
       <c r="C116" t="s">
-        <v>287</v>
+        <v>165</v>
       </c>
       <c r="D116" t="s">
-        <v>391</v>
+        <v>265</v>
       </c>
       <c r="E116" t="s">
-        <v>411</v>
+        <v>284</v>
       </c>
       <c r="F116" t="str">
         <f t="shared" si="2"/>
@@ -7025,19 +7101,19 @@
     </row>
     <row r="117" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
-        <v>214</v>
+        <v>116</v>
       </c>
       <c r="B117" t="s">
-        <v>215</v>
+        <v>417</v>
       </c>
       <c r="C117" t="s">
-        <v>287</v>
+        <v>165</v>
       </c>
       <c r="D117" t="s">
-        <v>392</v>
+        <v>266</v>
       </c>
       <c r="E117" t="s">
-        <v>411</v>
+        <v>284</v>
       </c>
       <c r="F117" t="str">
         <f t="shared" si="2"/>
@@ -7066,19 +7142,19 @@
     </row>
     <row r="118" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
-        <v>216</v>
+        <v>117</v>
       </c>
       <c r="B118" t="s">
-        <v>217</v>
+        <v>418</v>
       </c>
       <c r="C118" t="s">
-        <v>287</v>
+        <v>165</v>
       </c>
       <c r="D118" t="s">
-        <v>393</v>
+        <v>267</v>
       </c>
       <c r="E118" t="s">
-        <v>411</v>
+        <v>284</v>
       </c>
       <c r="F118" t="str">
         <f t="shared" si="2"/>
@@ -7107,19 +7183,19 @@
     </row>
     <row r="119" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
-        <v>218</v>
+        <v>118</v>
       </c>
       <c r="B119" t="s">
-        <v>219</v>
+        <v>419</v>
       </c>
       <c r="C119" t="s">
-        <v>287</v>
+        <v>165</v>
       </c>
       <c r="D119" t="s">
-        <v>394</v>
+        <v>268</v>
       </c>
       <c r="E119" t="s">
-        <v>411</v>
+        <v>284</v>
       </c>
       <c r="F119" t="str">
         <f t="shared" si="2"/>
@@ -7148,19 +7224,19 @@
     </row>
     <row r="120" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
-        <v>220</v>
+        <v>119</v>
       </c>
       <c r="B120" t="s">
-        <v>221</v>
+        <v>420</v>
       </c>
       <c r="C120" t="s">
-        <v>297</v>
+        <v>175</v>
       </c>
       <c r="D120" t="s">
-        <v>395</v>
+        <v>269</v>
       </c>
       <c r="E120" t="s">
-        <v>411</v>
+        <v>284</v>
       </c>
       <c r="F120" t="str">
         <f t="shared" si="2"/>
@@ -7189,19 +7265,19 @@
     </row>
     <row r="121" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
-        <v>222</v>
+        <v>120</v>
       </c>
       <c r="B121" t="s">
-        <v>223</v>
+        <v>421</v>
       </c>
       <c r="C121" t="s">
-        <v>287</v>
+        <v>165</v>
       </c>
       <c r="D121" t="s">
-        <v>396</v>
+        <v>270</v>
       </c>
       <c r="E121" t="s">
-        <v>411</v>
+        <v>284</v>
       </c>
       <c r="F121" t="str">
         <f t="shared" si="2"/>
@@ -7230,19 +7306,19 @@
     </row>
     <row r="122" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
-        <v>224</v>
+        <v>121</v>
       </c>
       <c r="B122" t="s">
-        <v>225</v>
+        <v>422</v>
       </c>
       <c r="C122" t="s">
-        <v>296</v>
+        <v>174</v>
       </c>
       <c r="D122" t="s">
-        <v>397</v>
+        <v>271</v>
       </c>
       <c r="E122" t="s">
-        <v>411</v>
+        <v>284</v>
       </c>
       <c r="F122" t="str">
         <f t="shared" si="2"/>
@@ -7271,19 +7347,19 @@
     </row>
     <row r="123" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
-        <v>226</v>
+        <v>122</v>
       </c>
       <c r="B123" t="s">
-        <v>227</v>
+        <v>423</v>
       </c>
       <c r="C123" t="s">
-        <v>296</v>
+        <v>174</v>
       </c>
       <c r="D123" t="s">
-        <v>398</v>
+        <v>272</v>
       </c>
       <c r="E123" t="s">
-        <v>411</v>
+        <v>284</v>
       </c>
       <c r="F123" t="str">
         <f t="shared" si="2"/>
@@ -7312,19 +7388,19 @@
     </row>
     <row r="124" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
-        <v>228</v>
+        <v>123</v>
       </c>
       <c r="B124" t="s">
-        <v>229</v>
+        <v>424</v>
       </c>
       <c r="C124" t="s">
-        <v>296</v>
+        <v>174</v>
       </c>
       <c r="D124" t="s">
-        <v>312</v>
+        <v>189</v>
       </c>
       <c r="E124" t="s">
-        <v>411</v>
+        <v>284</v>
       </c>
       <c r="F124" t="str">
         <f t="shared" si="2"/>
@@ -7353,19 +7429,19 @@
     </row>
     <row r="125" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
-        <v>230</v>
+        <v>124</v>
       </c>
       <c r="B125" t="s">
-        <v>231</v>
+        <v>425</v>
       </c>
       <c r="C125" t="s">
-        <v>304</v>
+        <v>439</v>
       </c>
       <c r="D125" t="s">
-        <v>399</v>
+        <v>273</v>
       </c>
       <c r="E125" t="s">
-        <v>425</v>
+        <v>298</v>
       </c>
       <c r="F125" t="str">
         <f t="shared" si="2"/>
@@ -7394,19 +7470,19 @@
     </row>
     <row r="126" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
-        <v>232</v>
+        <v>125</v>
       </c>
       <c r="B126" t="s">
-        <v>231</v>
+        <v>425</v>
       </c>
       <c r="C126" t="s">
-        <v>304</v>
+        <v>439</v>
       </c>
       <c r="D126" t="s">
-        <v>399</v>
+        <v>273</v>
       </c>
       <c r="E126" t="s">
-        <v>425</v>
+        <v>298</v>
       </c>
       <c r="F126" t="str">
         <f t="shared" si="2"/>
@@ -7435,19 +7511,19 @@
     </row>
     <row r="127" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
-        <v>233</v>
+        <v>126</v>
       </c>
       <c r="B127" t="s">
-        <v>231</v>
+        <v>425</v>
       </c>
       <c r="C127" t="s">
-        <v>304</v>
+        <v>439</v>
       </c>
       <c r="D127" t="s">
-        <v>399</v>
+        <v>273</v>
       </c>
       <c r="E127" t="s">
-        <v>425</v>
+        <v>298</v>
       </c>
       <c r="F127" t="str">
         <f t="shared" si="2"/>
@@ -7476,19 +7552,19 @@
     </row>
     <row r="128" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
-        <v>234</v>
+        <v>127</v>
       </c>
       <c r="B128" t="s">
-        <v>231</v>
+        <v>425</v>
       </c>
       <c r="C128" t="s">
-        <v>304</v>
+        <v>439</v>
       </c>
       <c r="D128" t="s">
-        <v>399</v>
+        <v>273</v>
       </c>
       <c r="E128" t="s">
-        <v>425</v>
+        <v>298</v>
       </c>
       <c r="F128" t="str">
         <f t="shared" si="2"/>
@@ -7517,19 +7593,19 @@
     </row>
     <row r="129" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
-        <v>235</v>
+        <v>128</v>
       </c>
       <c r="B129" t="s">
-        <v>236</v>
+        <v>426</v>
       </c>
       <c r="C129" t="s">
-        <v>296</v>
+        <v>174</v>
       </c>
       <c r="D129" t="s">
-        <v>400</v>
+        <v>274</v>
       </c>
       <c r="E129" t="s">
-        <v>411</v>
+        <v>284</v>
       </c>
       <c r="F129" t="str">
         <f t="shared" si="2"/>
@@ -7558,19 +7634,19 @@
     </row>
     <row r="130" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
-        <v>237</v>
+        <v>129</v>
       </c>
       <c r="B130" t="s">
-        <v>236</v>
+        <v>426</v>
       </c>
       <c r="C130" t="s">
-        <v>296</v>
+        <v>174</v>
       </c>
       <c r="D130" t="s">
-        <v>400</v>
+        <v>274</v>
       </c>
       <c r="E130" t="s">
-        <v>411</v>
+        <v>284</v>
       </c>
       <c r="F130" t="str">
         <f t="shared" si="2"/>
@@ -7599,19 +7675,19 @@
     </row>
     <row r="131" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
-        <v>238</v>
+        <v>130</v>
       </c>
       <c r="B131" t="s">
-        <v>236</v>
+        <v>426</v>
       </c>
       <c r="C131" t="s">
-        <v>296</v>
+        <v>174</v>
       </c>
       <c r="D131" t="s">
-        <v>400</v>
+        <v>274</v>
       </c>
       <c r="E131" t="s">
-        <v>411</v>
+        <v>284</v>
       </c>
       <c r="F131" t="str">
         <f t="shared" ref="F131:F146" si="4">IF(IFERROR(FIND("One size",E131)&gt;=1,FALSE),"One size",E131)</f>
@@ -7640,19 +7716,19 @@
     </row>
     <row r="132" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
-        <v>239</v>
+        <v>131</v>
       </c>
       <c r="B132" t="s">
-        <v>236</v>
+        <v>426</v>
       </c>
       <c r="C132" t="s">
-        <v>296</v>
+        <v>174</v>
       </c>
       <c r="D132" t="s">
-        <v>400</v>
+        <v>274</v>
       </c>
       <c r="E132" t="s">
-        <v>411</v>
+        <v>284</v>
       </c>
       <c r="F132" t="str">
         <f t="shared" si="4"/>
@@ -7681,19 +7757,19 @@
     </row>
     <row r="133" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
-        <v>240</v>
+        <v>132</v>
       </c>
       <c r="B133" t="s">
-        <v>241</v>
+        <v>426</v>
       </c>
       <c r="C133" t="s">
-        <v>296</v>
+        <v>174</v>
       </c>
       <c r="D133" t="s">
-        <v>401</v>
+        <v>274</v>
       </c>
       <c r="E133" t="s">
-        <v>426</v>
+        <v>299</v>
       </c>
       <c r="F133" t="str">
         <f t="shared" si="4"/>
@@ -7722,19 +7798,19 @@
     </row>
     <row r="134" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
-        <v>68</v>
+        <v>40</v>
       </c>
       <c r="B134" t="s">
-        <v>242</v>
+        <v>427</v>
       </c>
       <c r="C134" t="s">
-        <v>279</v>
+        <v>157</v>
       </c>
       <c r="D134" t="s">
-        <v>402</v>
+        <v>275</v>
       </c>
       <c r="E134" t="s">
-        <v>426</v>
+        <v>299</v>
       </c>
       <c r="F134" t="str">
         <f t="shared" si="4"/>
@@ -7763,19 +7839,19 @@
     </row>
     <row r="135" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
-        <v>243</v>
+        <v>133</v>
       </c>
       <c r="B135" t="s">
-        <v>244</v>
+        <v>428</v>
       </c>
       <c r="C135" t="s">
-        <v>298</v>
+        <v>176</v>
       </c>
       <c r="D135" t="s">
-        <v>381</v>
+        <v>255</v>
       </c>
       <c r="E135" t="s">
-        <v>427</v>
+        <v>300</v>
       </c>
       <c r="F135" t="str">
         <f t="shared" si="4"/>
@@ -7804,19 +7880,19 @@
     </row>
     <row r="136" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
-        <v>245</v>
+        <v>134</v>
       </c>
       <c r="B136" t="s">
-        <v>246</v>
+        <v>429</v>
       </c>
       <c r="C136" t="s">
-        <v>293</v>
+        <v>171</v>
       </c>
       <c r="D136" t="s">
-        <v>403</v>
+        <v>276</v>
       </c>
       <c r="E136" t="s">
-        <v>427</v>
+        <v>300</v>
       </c>
       <c r="F136" t="str">
         <f t="shared" si="4"/>
@@ -7845,19 +7921,19 @@
     </row>
     <row r="137" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
-        <v>247</v>
+        <v>135</v>
       </c>
       <c r="B137" t="s">
-        <v>248</v>
+        <v>430</v>
       </c>
       <c r="C137" t="s">
-        <v>275</v>
+        <v>153</v>
       </c>
       <c r="D137" t="s">
-        <v>359</v>
+        <v>233</v>
       </c>
       <c r="E137" t="s">
-        <v>428</v>
+        <v>301</v>
       </c>
       <c r="F137" t="str">
         <f t="shared" si="4"/>
@@ -7886,19 +7962,19 @@
     </row>
     <row r="138" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
-        <v>249</v>
+        <v>136</v>
       </c>
       <c r="B138" t="s">
-        <v>250</v>
+        <v>431</v>
       </c>
       <c r="C138" t="s">
-        <v>269</v>
+        <v>147</v>
       </c>
       <c r="D138" t="s">
-        <v>347</v>
+        <v>221</v>
       </c>
       <c r="E138" t="s">
-        <v>428</v>
+        <v>301</v>
       </c>
       <c r="F138" t="str">
         <f t="shared" si="4"/>
@@ -7927,19 +8003,19 @@
     </row>
     <row r="139" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
-        <v>251</v>
+        <v>137</v>
       </c>
       <c r="B139" t="s">
-        <v>252</v>
+        <v>432</v>
       </c>
       <c r="C139" t="s">
-        <v>299</v>
+        <v>177</v>
       </c>
       <c r="D139" t="s">
-        <v>359</v>
+        <v>233</v>
       </c>
       <c r="E139" t="s">
-        <v>411</v>
+        <v>284</v>
       </c>
       <c r="F139" t="str">
         <f t="shared" si="4"/>
@@ -7968,19 +8044,19 @@
     </row>
     <row r="140" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
-        <v>253</v>
+        <v>138</v>
       </c>
       <c r="B140" t="s">
-        <v>254</v>
+        <v>433</v>
       </c>
       <c r="C140" t="s">
-        <v>269</v>
+        <v>147</v>
       </c>
       <c r="D140" t="s">
-        <v>330</v>
+        <v>207</v>
       </c>
       <c r="E140" t="s">
-        <v>429</v>
+        <v>302</v>
       </c>
       <c r="F140" t="str">
         <f t="shared" si="4"/>
@@ -8009,19 +8085,19 @@
     </row>
     <row r="141" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
-        <v>255</v>
+        <v>139</v>
       </c>
       <c r="B141" t="s">
-        <v>256</v>
+        <v>434</v>
       </c>
       <c r="C141" t="s">
-        <v>299</v>
+        <v>177</v>
       </c>
       <c r="D141" t="s">
-        <v>330</v>
+        <v>207</v>
       </c>
       <c r="E141" t="s">
-        <v>411</v>
+        <v>284</v>
       </c>
       <c r="F141" t="str">
         <f t="shared" si="4"/>
@@ -8050,19 +8126,19 @@
     </row>
     <row r="142" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
-        <v>257</v>
+        <v>140</v>
       </c>
       <c r="B142" t="s">
-        <v>258</v>
+        <v>435</v>
       </c>
       <c r="C142" t="s">
-        <v>298</v>
+        <v>176</v>
       </c>
       <c r="D142" t="s">
-        <v>404</v>
+        <v>277</v>
       </c>
       <c r="E142" t="s">
-        <v>430</v>
+        <v>303</v>
       </c>
       <c r="F142" t="str">
         <f t="shared" si="4"/>
@@ -8091,19 +8167,19 @@
     </row>
     <row r="143" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
-        <v>259</v>
+        <v>141</v>
       </c>
       <c r="B143" t="s">
-        <v>258</v>
+        <v>435</v>
       </c>
       <c r="C143" t="s">
-        <v>298</v>
+        <v>176</v>
       </c>
       <c r="D143" t="s">
-        <v>404</v>
+        <v>277</v>
       </c>
       <c r="E143" t="s">
-        <v>430</v>
+        <v>303</v>
       </c>
       <c r="F143" t="str">
         <f t="shared" si="4"/>
@@ -8132,19 +8208,19 @@
     </row>
     <row r="144" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
-        <v>260</v>
+        <v>142</v>
       </c>
       <c r="B144" t="s">
-        <v>261</v>
+        <v>436</v>
       </c>
       <c r="C144" t="s">
-        <v>298</v>
+        <v>176</v>
       </c>
       <c r="D144" t="s">
-        <v>405</v>
+        <v>278</v>
       </c>
       <c r="E144" t="s">
-        <v>430</v>
+        <v>303</v>
       </c>
       <c r="F144" t="str">
         <f t="shared" si="4"/>
@@ -8173,19 +8249,19 @@
     </row>
     <row r="145" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
-        <v>262</v>
+        <v>143</v>
       </c>
       <c r="B145" t="s">
-        <v>263</v>
+        <v>437</v>
       </c>
       <c r="C145" t="s">
-        <v>298</v>
+        <v>176</v>
       </c>
       <c r="D145" t="s">
-        <v>406</v>
+        <v>279</v>
       </c>
       <c r="E145" t="s">
-        <v>430</v>
+        <v>303</v>
       </c>
       <c r="F145" t="str">
         <f t="shared" si="4"/>
@@ -8214,19 +8290,19 @@
     </row>
     <row r="146" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
-        <v>264</v>
+        <v>144</v>
       </c>
       <c r="B146" t="s">
-        <v>265</v>
+        <v>438</v>
       </c>
       <c r="C146" t="s">
-        <v>300</v>
+        <v>178</v>
       </c>
       <c r="D146" t="s">
-        <v>407</v>
+        <v>280</v>
       </c>
       <c r="E146" t="s">
-        <v>430</v>
+        <v>303</v>
       </c>
       <c r="F146" t="str">
         <f t="shared" si="4"/>
@@ -8267,8 +8343,8 @@
   <sheetPr codeName="Лист2"/>
   <dimension ref="A1:D146"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A124" workbookViewId="0">
-      <selection activeCell="C125" sqref="C125"/>
+    <sheetView tabSelected="1" topLeftCell="A121" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:B146"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8284,13 +8360,13 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>301</v>
+        <v>179</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>305</v>
+        <v>182</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>408</v>
+        <v>281</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
@@ -8298,2029 +8374,2029 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>268</v>
+        <v>146</v>
       </c>
       <c r="C2" t="s">
-        <v>306</v>
+        <v>183</v>
       </c>
       <c r="D2" t="s">
-        <v>437</v>
+        <v>307</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>268</v>
+        <v>146</v>
       </c>
       <c r="C3" t="s">
+        <v>184</v>
+      </c>
+      <c r="D3" t="s">
         <v>307</v>
-      </c>
-      <c r="D3" t="s">
-        <v>437</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>268</v>
+        <v>146</v>
       </c>
       <c r="C4" t="s">
-        <v>308</v>
+        <v>185</v>
       </c>
       <c r="D4" t="s">
-        <v>437</v>
+        <v>307</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>269</v>
+        <v>147</v>
       </c>
       <c r="C5" t="s">
-        <v>309</v>
+        <v>186</v>
       </c>
       <c r="D5" t="s">
-        <v>437</v>
+        <v>307</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>270</v>
+        <v>148</v>
       </c>
       <c r="C6" t="s">
-        <v>310</v>
+        <v>187</v>
       </c>
       <c r="D6" t="s">
-        <v>437</v>
+        <v>307</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="B7" t="s">
-        <v>271</v>
+        <v>149</v>
       </c>
       <c r="C7" t="s">
-        <v>311</v>
+        <v>188</v>
       </c>
       <c r="D7" t="s">
-        <v>437</v>
+        <v>307</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>266</v>
+        <v>145</v>
       </c>
       <c r="B8" t="s">
-        <v>272</v>
+        <v>150</v>
       </c>
       <c r="C8" t="s">
-        <v>312</v>
+        <v>189</v>
       </c>
       <c r="D8" t="s">
-        <v>438</v>
+        <v>308</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>271</v>
+        <v>154</v>
       </c>
       <c r="C9" t="s">
-        <v>313</v>
+        <v>441</v>
       </c>
       <c r="D9" t="s">
-        <v>437</v>
+        <v>307</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>271</v>
+        <v>154</v>
       </c>
       <c r="C10" t="s">
-        <v>313</v>
+        <v>442</v>
       </c>
       <c r="D10" t="s">
-        <v>437</v>
+        <v>307</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>271</v>
+        <v>149</v>
       </c>
       <c r="C11" t="s">
-        <v>313</v>
+        <v>190</v>
       </c>
       <c r="D11" t="s">
-        <v>437</v>
+        <v>307</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>271</v>
+        <v>149</v>
       </c>
       <c r="C12" t="s">
-        <v>313</v>
+        <v>190</v>
       </c>
       <c r="D12" t="s">
-        <v>437</v>
+        <v>307</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>271</v>
+        <v>149</v>
       </c>
       <c r="C13" t="s">
-        <v>313</v>
+        <v>190</v>
       </c>
       <c r="D13" t="s">
-        <v>437</v>
+        <v>307</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>271</v>
+        <v>149</v>
       </c>
       <c r="C14" t="s">
-        <v>314</v>
+        <v>191</v>
       </c>
       <c r="D14" t="s">
-        <v>437</v>
+        <v>307</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>271</v>
+        <v>149</v>
       </c>
       <c r="C15" t="s">
-        <v>315</v>
+        <v>192</v>
       </c>
       <c r="D15" t="s">
-        <v>437</v>
+        <v>307</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>273</v>
+        <v>151</v>
       </c>
       <c r="C16" t="s">
-        <v>316</v>
+        <v>193</v>
       </c>
       <c r="D16" t="s">
-        <v>437</v>
+        <v>307</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>269</v>
+        <v>147</v>
       </c>
       <c r="C17" t="s">
-        <v>317</v>
+        <v>194</v>
       </c>
       <c r="D17" t="s">
-        <v>437</v>
+        <v>307</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>28</v>
+        <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>274</v>
+        <v>152</v>
       </c>
       <c r="C18" t="s">
-        <v>314</v>
+        <v>191</v>
       </c>
       <c r="D18" t="s">
-        <v>437</v>
+        <v>307</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>273</v>
+        <v>151</v>
       </c>
       <c r="C19" t="s">
-        <v>318</v>
+        <v>195</v>
       </c>
       <c r="D19" t="s">
-        <v>437</v>
+        <v>307</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>32</v>
+        <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>302</v>
+        <v>180</v>
       </c>
       <c r="C20" t="s">
-        <v>319</v>
+        <v>196</v>
       </c>
       <c r="D20" t="s">
-        <v>437</v>
+        <v>307</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>34</v>
+        <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>275</v>
+        <v>180</v>
       </c>
       <c r="C21" t="s">
-        <v>320</v>
+        <v>443</v>
       </c>
       <c r="D21" t="s">
-        <v>437</v>
+        <v>307</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>36</v>
+        <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>275</v>
+        <v>153</v>
       </c>
       <c r="C22" t="s">
-        <v>320</v>
+        <v>197</v>
       </c>
       <c r="D22" t="s">
-        <v>437</v>
+        <v>307</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>37</v>
+        <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>275</v>
+        <v>153</v>
       </c>
       <c r="C23" t="s">
-        <v>321</v>
+        <v>198</v>
       </c>
       <c r="D23" t="s">
-        <v>437</v>
+        <v>307</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>39</v>
+        <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>275</v>
+        <v>153</v>
       </c>
       <c r="C24" t="s">
-        <v>322</v>
+        <v>199</v>
       </c>
       <c r="D24" t="s">
-        <v>437</v>
+        <v>307</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>41</v>
+        <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>275</v>
+        <v>153</v>
       </c>
       <c r="C25" t="s">
-        <v>323</v>
+        <v>200</v>
       </c>
       <c r="D25" t="s">
-        <v>437</v>
+        <v>307</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>43</v>
+        <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>275</v>
+        <v>153</v>
       </c>
       <c r="C26" t="s">
-        <v>324</v>
+        <v>201</v>
       </c>
       <c r="D26" t="s">
-        <v>437</v>
+        <v>307</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>45</v>
+        <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>275</v>
+        <v>153</v>
       </c>
       <c r="C27" t="s">
-        <v>325</v>
+        <v>202</v>
       </c>
       <c r="D27" t="s">
-        <v>437</v>
+        <v>307</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>47</v>
+        <v>27</v>
       </c>
       <c r="B28" t="s">
-        <v>275</v>
+        <v>153</v>
       </c>
       <c r="C28" t="s">
-        <v>325</v>
+        <v>202</v>
       </c>
       <c r="D28" t="s">
-        <v>437</v>
+        <v>307</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>48</v>
+        <v>28</v>
       </c>
       <c r="B29" t="s">
-        <v>276</v>
+        <v>154</v>
       </c>
       <c r="C29" t="s">
-        <v>326</v>
+        <v>203</v>
       </c>
       <c r="D29" t="s">
-        <v>411</v>
+        <v>284</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>50</v>
+        <v>29</v>
       </c>
       <c r="B30" t="s">
-        <v>276</v>
+        <v>154</v>
       </c>
       <c r="C30" t="s">
-        <v>327</v>
+        <v>204</v>
       </c>
       <c r="D30" t="s">
-        <v>411</v>
+        <v>284</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>52</v>
+        <v>30</v>
       </c>
       <c r="B31" t="s">
-        <v>303</v>
+        <v>181</v>
       </c>
       <c r="C31" t="s">
-        <v>315</v>
+        <v>192</v>
       </c>
       <c r="D31" t="s">
-        <v>411</v>
+        <v>284</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>54</v>
+        <v>31</v>
       </c>
       <c r="B32" t="s">
-        <v>303</v>
+        <v>181</v>
       </c>
       <c r="C32" t="s">
-        <v>328</v>
+        <v>205</v>
       </c>
       <c r="D32" t="s">
-        <v>411</v>
+        <v>284</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>56</v>
+        <v>32</v>
       </c>
       <c r="B33" t="s">
-        <v>273</v>
+        <v>151</v>
       </c>
       <c r="C33" t="s">
-        <v>329</v>
+        <v>206</v>
       </c>
       <c r="D33" t="s">
-        <v>412</v>
+        <v>285</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>58</v>
+        <v>33</v>
       </c>
       <c r="B34" t="s">
-        <v>277</v>
+        <v>155</v>
       </c>
       <c r="C34" t="s">
-        <v>330</v>
+        <v>207</v>
       </c>
       <c r="D34" t="s">
-        <v>411</v>
+        <v>284</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>60</v>
+        <v>34</v>
       </c>
       <c r="B35" t="s">
-        <v>273</v>
+        <v>151</v>
       </c>
       <c r="C35" t="s">
-        <v>331</v>
+        <v>208</v>
       </c>
       <c r="D35" t="s">
-        <v>411</v>
+        <v>284</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>62</v>
+        <v>35</v>
       </c>
       <c r="B36" t="s">
-        <v>278</v>
+        <v>163</v>
       </c>
       <c r="C36" t="s">
-        <v>332</v>
+        <v>212</v>
       </c>
       <c r="D36" t="s">
-        <v>411</v>
+        <v>284</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>64</v>
+        <v>36</v>
       </c>
       <c r="B37" t="s">
-        <v>278</v>
+        <v>163</v>
       </c>
       <c r="C37" t="s">
-        <v>332</v>
+        <v>213</v>
       </c>
       <c r="D37" t="s">
-        <v>411</v>
+        <v>284</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>65</v>
+        <v>37</v>
       </c>
       <c r="B38" t="s">
-        <v>278</v>
+        <v>180</v>
       </c>
       <c r="C38" t="s">
-        <v>332</v>
+        <v>196</v>
       </c>
       <c r="D38" t="s">
-        <v>411</v>
+        <v>284</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>66</v>
+        <v>38</v>
       </c>
       <c r="B39" t="s">
-        <v>278</v>
+        <v>155</v>
       </c>
       <c r="C39" t="s">
-        <v>332</v>
+        <v>444</v>
       </c>
       <c r="D39" t="s">
-        <v>411</v>
+        <v>284</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>67</v>
+        <v>39</v>
       </c>
       <c r="B40" t="s">
-        <v>278</v>
+        <v>156</v>
       </c>
       <c r="C40" t="s">
-        <v>332</v>
+        <v>209</v>
       </c>
       <c r="D40" t="s">
-        <v>411</v>
+        <v>284</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>68</v>
+        <v>40</v>
       </c>
       <c r="B41" t="s">
-        <v>279</v>
+        <v>157</v>
       </c>
       <c r="C41" t="s">
-        <v>333</v>
+        <v>210</v>
       </c>
       <c r="D41" t="s">
-        <v>439</v>
+        <v>309</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>70</v>
+        <v>41</v>
       </c>
       <c r="B42" t="s">
-        <v>279</v>
+        <v>157</v>
       </c>
       <c r="C42" t="s">
-        <v>334</v>
+        <v>211</v>
       </c>
       <c r="D42" t="s">
-        <v>411</v>
+        <v>284</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>72</v>
+        <v>42</v>
       </c>
       <c r="B43" t="s">
-        <v>280</v>
+        <v>158</v>
       </c>
       <c r="C43" t="s">
-        <v>335</v>
+        <v>212</v>
       </c>
       <c r="D43" t="s">
-        <v>411</v>
+        <v>284</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>74</v>
+        <v>43</v>
       </c>
       <c r="B44" t="s">
-        <v>273</v>
+        <v>151</v>
       </c>
       <c r="C44" t="s">
-        <v>336</v>
+        <v>213</v>
       </c>
       <c r="D44" t="s">
-        <v>411</v>
+        <v>284</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>76</v>
+        <v>44</v>
       </c>
       <c r="B45" t="s">
-        <v>274</v>
+        <v>152</v>
       </c>
       <c r="C45" t="s">
-        <v>337</v>
+        <v>214</v>
       </c>
       <c r="D45" t="s">
-        <v>438</v>
+        <v>308</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>78</v>
+        <v>45</v>
       </c>
       <c r="B46" t="s">
-        <v>274</v>
+        <v>152</v>
       </c>
       <c r="C46" t="s">
-        <v>338</v>
+        <v>215</v>
       </c>
       <c r="D46" t="s">
-        <v>411</v>
+        <v>284</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>80</v>
+        <v>46</v>
       </c>
       <c r="B47" t="s">
-        <v>281</v>
+        <v>159</v>
       </c>
       <c r="C47" t="s">
-        <v>339</v>
+        <v>216</v>
       </c>
       <c r="D47" t="s">
-        <v>438</v>
+        <v>308</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>82</v>
+        <v>47</v>
       </c>
       <c r="B48" t="s">
-        <v>282</v>
+        <v>160</v>
       </c>
       <c r="C48" t="s">
-        <v>434</v>
+        <v>449</v>
       </c>
       <c r="D48" t="s">
-        <v>412</v>
+        <v>285</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>84</v>
+        <v>48</v>
       </c>
       <c r="B49" t="s">
-        <v>281</v>
+        <v>159</v>
       </c>
       <c r="C49" t="s">
-        <v>341</v>
+        <v>217</v>
       </c>
       <c r="D49" t="s">
-        <v>438</v>
+        <v>308</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>86</v>
+        <v>49</v>
       </c>
       <c r="B50" t="s">
-        <v>273</v>
+        <v>151</v>
       </c>
       <c r="C50" t="s">
-        <v>342</v>
+        <v>218</v>
       </c>
       <c r="D50" t="s">
-        <v>412</v>
+        <v>285</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>88</v>
+        <v>50</v>
       </c>
       <c r="B51" t="s">
-        <v>283</v>
+        <v>161</v>
       </c>
       <c r="C51" t="s">
-        <v>343</v>
+        <v>219</v>
       </c>
       <c r="D51" t="s">
-        <v>416</v>
+        <v>289</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>90</v>
+        <v>51</v>
       </c>
       <c r="B52" t="s">
-        <v>282</v>
+        <v>160</v>
       </c>
       <c r="C52" t="s">
-        <v>435</v>
+        <v>450</v>
       </c>
       <c r="D52" t="s">
-        <v>416</v>
+        <v>289</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>92</v>
+        <v>52</v>
       </c>
       <c r="B53" t="s">
-        <v>284</v>
+        <v>162</v>
       </c>
       <c r="C53" t="s">
-        <v>435</v>
+        <v>450</v>
       </c>
       <c r="D53" t="s">
-        <v>416</v>
+        <v>289</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>94</v>
+        <v>53</v>
       </c>
       <c r="B54" t="s">
-        <v>282</v>
+        <v>160</v>
       </c>
       <c r="C54" t="s">
-        <v>436</v>
+        <v>451</v>
       </c>
       <c r="D54" t="s">
-        <v>416</v>
+        <v>289</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>96</v>
+        <v>54</v>
       </c>
       <c r="B55" t="s">
-        <v>285</v>
+        <v>163</v>
       </c>
       <c r="C55" t="s">
-        <v>343</v>
+        <v>219</v>
       </c>
       <c r="D55" t="s">
-        <v>438</v>
+        <v>308</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>98</v>
+        <v>55</v>
       </c>
       <c r="B56" t="s">
-        <v>286</v>
+        <v>164</v>
       </c>
       <c r="C56" t="s">
-        <v>346</v>
+        <v>220</v>
       </c>
       <c r="D56" t="s">
-        <v>438</v>
+        <v>308</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>100</v>
+        <v>56</v>
       </c>
       <c r="B57" t="s">
-        <v>286</v>
+        <v>164</v>
       </c>
       <c r="C57" t="s">
-        <v>347</v>
+        <v>221</v>
       </c>
       <c r="D57" t="s">
-        <v>438</v>
+        <v>308</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>102</v>
+        <v>57</v>
       </c>
       <c r="B58" t="s">
-        <v>286</v>
+        <v>164</v>
       </c>
       <c r="C58" t="s">
-        <v>348</v>
+        <v>222</v>
       </c>
       <c r="D58" t="s">
-        <v>438</v>
+        <v>308</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>104</v>
+        <v>58</v>
       </c>
       <c r="B59" t="s">
-        <v>286</v>
+        <v>164</v>
       </c>
       <c r="C59" t="s">
-        <v>349</v>
+        <v>445</v>
       </c>
       <c r="D59" t="s">
-        <v>438</v>
+        <v>308</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>106</v>
+        <v>59</v>
       </c>
       <c r="B60" t="s">
-        <v>286</v>
+        <v>164</v>
       </c>
       <c r="C60" t="s">
-        <v>349</v>
+        <v>223</v>
       </c>
       <c r="D60" t="s">
-        <v>438</v>
+        <v>308</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>107</v>
+        <v>60</v>
       </c>
       <c r="B61" t="s">
-        <v>286</v>
+        <v>164</v>
       </c>
       <c r="C61" t="s">
-        <v>350</v>
+        <v>224</v>
       </c>
       <c r="D61" t="s">
-        <v>438</v>
+        <v>308</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>109</v>
+        <v>61</v>
       </c>
       <c r="B62" t="s">
-        <v>286</v>
+        <v>164</v>
       </c>
       <c r="C62" t="s">
-        <v>351</v>
+        <v>225</v>
       </c>
       <c r="D62" t="s">
-        <v>416</v>
+        <v>289</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>111</v>
+        <v>62</v>
       </c>
       <c r="B63" t="s">
-        <v>286</v>
+        <v>164</v>
       </c>
       <c r="C63" t="s">
-        <v>352</v>
+        <v>226</v>
       </c>
       <c r="D63" t="s">
-        <v>412</v>
+        <v>285</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>113</v>
+        <v>63</v>
       </c>
       <c r="B64" t="s">
-        <v>286</v>
+        <v>164</v>
       </c>
       <c r="C64" t="s">
-        <v>353</v>
+        <v>227</v>
       </c>
       <c r="D64" t="s">
-        <v>416</v>
+        <v>289</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>115</v>
+        <v>64</v>
       </c>
       <c r="B65" t="s">
-        <v>286</v>
+        <v>164</v>
       </c>
       <c r="C65" t="s">
-        <v>354</v>
+        <v>228</v>
       </c>
       <c r="D65" t="s">
-        <v>417</v>
+        <v>290</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>117</v>
+        <v>65</v>
       </c>
       <c r="B66" t="s">
-        <v>286</v>
+        <v>164</v>
       </c>
       <c r="C66" t="s">
-        <v>355</v>
+        <v>229</v>
       </c>
       <c r="D66" t="s">
-        <v>418</v>
+        <v>291</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>119</v>
+        <v>66</v>
       </c>
       <c r="B67" t="s">
-        <v>286</v>
+        <v>164</v>
       </c>
       <c r="C67" t="s">
-        <v>356</v>
+        <v>230</v>
       </c>
       <c r="D67" t="s">
-        <v>419</v>
+        <v>292</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>121</v>
+        <v>67</v>
       </c>
       <c r="B68" t="s">
-        <v>286</v>
+        <v>164</v>
       </c>
       <c r="C68" t="s">
-        <v>357</v>
+        <v>231</v>
       </c>
       <c r="D68" t="s">
-        <v>418</v>
+        <v>291</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>123</v>
+        <v>68</v>
       </c>
       <c r="B69" t="s">
-        <v>286</v>
+        <v>164</v>
       </c>
       <c r="C69" t="s">
-        <v>358</v>
+        <v>232</v>
       </c>
       <c r="D69" t="s">
-        <v>419</v>
+        <v>292</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>125</v>
+        <v>69</v>
       </c>
       <c r="B70" t="s">
-        <v>286</v>
+        <v>164</v>
       </c>
       <c r="C70" t="s">
-        <v>359</v>
+        <v>233</v>
       </c>
       <c r="D70" t="s">
-        <v>438</v>
+        <v>308</v>
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>127</v>
+        <v>70</v>
       </c>
       <c r="B71" t="s">
-        <v>286</v>
+        <v>164</v>
       </c>
       <c r="C71" t="s">
-        <v>359</v>
+        <v>233</v>
       </c>
       <c r="D71" t="s">
-        <v>412</v>
+        <v>285</v>
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>129</v>
+        <v>71</v>
       </c>
       <c r="B72" t="s">
-        <v>286</v>
+        <v>164</v>
       </c>
       <c r="C72" t="s">
-        <v>359</v>
+        <v>233</v>
       </c>
       <c r="D72" t="s">
-        <v>438</v>
+        <v>308</v>
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>130</v>
+        <v>72</v>
       </c>
       <c r="B73" t="s">
-        <v>286</v>
+        <v>164</v>
       </c>
       <c r="C73" t="s">
-        <v>360</v>
+        <v>234</v>
       </c>
       <c r="D73" t="s">
-        <v>438</v>
+        <v>308</v>
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>132</v>
+        <v>73</v>
       </c>
       <c r="B74" t="s">
-        <v>286</v>
+        <v>164</v>
       </c>
       <c r="C74" t="s">
-        <v>359</v>
+        <v>233</v>
       </c>
       <c r="D74" t="s">
-        <v>438</v>
+        <v>308</v>
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>133</v>
+        <v>74</v>
       </c>
       <c r="B75" t="s">
-        <v>286</v>
+        <v>164</v>
       </c>
       <c r="C75" t="s">
-        <v>359</v>
+        <v>233</v>
       </c>
       <c r="D75" t="s">
-        <v>438</v>
+        <v>308</v>
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>134</v>
+        <v>75</v>
       </c>
       <c r="B76" t="s">
-        <v>287</v>
+        <v>165</v>
       </c>
       <c r="C76" t="s">
-        <v>361</v>
+        <v>235</v>
       </c>
       <c r="D76" t="s">
-        <v>420</v>
+        <v>293</v>
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>136</v>
+        <v>76</v>
       </c>
       <c r="B77" t="s">
-        <v>287</v>
+        <v>165</v>
       </c>
       <c r="C77" t="s">
-        <v>362</v>
+        <v>236</v>
       </c>
       <c r="D77" t="s">
-        <v>411</v>
+        <v>284</v>
       </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>138</v>
+        <v>77</v>
       </c>
       <c r="B78" t="s">
-        <v>285</v>
+        <v>163</v>
       </c>
       <c r="C78" t="s">
-        <v>363</v>
+        <v>237</v>
       </c>
       <c r="D78" t="s">
-        <v>411</v>
+        <v>284</v>
       </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>140</v>
+        <v>78</v>
       </c>
       <c r="B79" t="s">
-        <v>285</v>
+        <v>163</v>
       </c>
       <c r="C79" t="s">
-        <v>363</v>
+        <v>237</v>
       </c>
       <c r="D79" t="s">
-        <v>411</v>
+        <v>284</v>
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>142</v>
+        <v>79</v>
       </c>
       <c r="B80" t="s">
-        <v>288</v>
+        <v>166</v>
       </c>
       <c r="C80" t="s">
-        <v>312</v>
+        <v>189</v>
       </c>
       <c r="D80" t="s">
-        <v>411</v>
+        <v>284</v>
       </c>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>144</v>
+        <v>80</v>
       </c>
       <c r="B81" t="s">
-        <v>287</v>
+        <v>165</v>
       </c>
       <c r="C81" t="s">
-        <v>364</v>
+        <v>238</v>
       </c>
       <c r="D81" t="s">
-        <v>411</v>
+        <v>284</v>
       </c>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>146</v>
+        <v>81</v>
       </c>
       <c r="B82" t="s">
-        <v>285</v>
+        <v>163</v>
       </c>
       <c r="C82" t="s">
-        <v>365</v>
+        <v>239</v>
       </c>
       <c r="D82" t="s">
-        <v>438</v>
+        <v>308</v>
       </c>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>148</v>
+        <v>82</v>
       </c>
       <c r="B83" t="s">
-        <v>287</v>
+        <v>165</v>
       </c>
       <c r="C83" t="s">
-        <v>366</v>
+        <v>240</v>
       </c>
       <c r="D83" t="s">
-        <v>438</v>
+        <v>308</v>
       </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>150</v>
+        <v>83</v>
       </c>
       <c r="B84" t="s">
-        <v>289</v>
+        <v>167</v>
       </c>
       <c r="C84" t="s">
-        <v>367</v>
+        <v>241</v>
       </c>
       <c r="D84" t="s">
-        <v>411</v>
+        <v>284</v>
       </c>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>152</v>
+        <v>84</v>
       </c>
       <c r="B85" t="s">
-        <v>287</v>
+        <v>165</v>
       </c>
       <c r="C85" t="s">
-        <v>368</v>
+        <v>242</v>
       </c>
       <c r="D85" t="s">
-        <v>411</v>
+        <v>284</v>
       </c>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>154</v>
+        <v>85</v>
       </c>
       <c r="B86" t="s">
-        <v>290</v>
+        <v>168</v>
       </c>
       <c r="C86" t="s">
-        <v>369</v>
+        <v>243</v>
       </c>
       <c r="D86" t="s">
-        <v>411</v>
+        <v>284</v>
       </c>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>156</v>
+        <v>86</v>
       </c>
       <c r="B87" t="s">
-        <v>291</v>
+        <v>169</v>
       </c>
       <c r="C87" t="s">
-        <v>370</v>
+        <v>244</v>
       </c>
       <c r="D87" t="s">
-        <v>411</v>
+        <v>284</v>
       </c>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>158</v>
+        <v>87</v>
       </c>
       <c r="B88" t="s">
-        <v>290</v>
+        <v>168</v>
       </c>
       <c r="C88" t="s">
-        <v>371</v>
+        <v>245</v>
       </c>
       <c r="D88" t="s">
-        <v>411</v>
+        <v>284</v>
       </c>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>160</v>
+        <v>88</v>
       </c>
       <c r="B89" t="s">
-        <v>287</v>
+        <v>165</v>
       </c>
       <c r="C89" t="s">
-        <v>372</v>
+        <v>246</v>
       </c>
       <c r="D89" t="s">
-        <v>411</v>
+        <v>284</v>
       </c>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>162</v>
+        <v>89</v>
       </c>
       <c r="B90" t="s">
-        <v>292</v>
+        <v>170</v>
       </c>
       <c r="C90" t="s">
-        <v>373</v>
+        <v>247</v>
       </c>
       <c r="D90" t="s">
-        <v>411</v>
+        <v>284</v>
       </c>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>164</v>
+        <v>90</v>
       </c>
       <c r="B91" t="s">
-        <v>292</v>
+        <v>170</v>
       </c>
       <c r="C91" t="s">
-        <v>374</v>
+        <v>248</v>
       </c>
       <c r="D91" t="s">
-        <v>411</v>
+        <v>284</v>
       </c>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>166</v>
+        <v>91</v>
       </c>
       <c r="B92" t="s">
-        <v>292</v>
+        <v>170</v>
       </c>
       <c r="C92" t="s">
-        <v>373</v>
+        <v>247</v>
       </c>
       <c r="D92" t="s">
-        <v>411</v>
+        <v>284</v>
       </c>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>168</v>
+        <v>92</v>
       </c>
       <c r="B93" t="s">
-        <v>287</v>
+        <v>165</v>
       </c>
       <c r="C93" t="s">
-        <v>375</v>
+        <v>249</v>
       </c>
       <c r="D93" t="s">
-        <v>411</v>
+        <v>284</v>
       </c>
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>170</v>
+        <v>93</v>
       </c>
       <c r="B94" t="s">
-        <v>287</v>
+        <v>165</v>
       </c>
       <c r="C94" t="s">
-        <v>376</v>
+        <v>250</v>
       </c>
       <c r="D94" t="s">
-        <v>411</v>
+        <v>284</v>
       </c>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>172</v>
+        <v>94</v>
       </c>
       <c r="B95" t="s">
-        <v>289</v>
+        <v>167</v>
       </c>
       <c r="C95" t="s">
-        <v>377</v>
+        <v>251</v>
       </c>
       <c r="D95" t="s">
-        <v>411</v>
+        <v>284</v>
       </c>
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>174</v>
+        <v>95</v>
       </c>
       <c r="B96" t="s">
-        <v>293</v>
+        <v>171</v>
       </c>
       <c r="C96" t="s">
-        <v>378</v>
+        <v>252</v>
       </c>
       <c r="D96" t="s">
-        <v>411</v>
+        <v>284</v>
       </c>
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>176</v>
+        <v>96</v>
       </c>
       <c r="B97" t="s">
-        <v>287</v>
+        <v>165</v>
       </c>
       <c r="C97" t="s">
-        <v>379</v>
+        <v>253</v>
       </c>
       <c r="D97" t="s">
-        <v>411</v>
+        <v>284</v>
       </c>
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
-        <v>178</v>
+        <v>97</v>
       </c>
       <c r="B98" t="s">
-        <v>287</v>
+        <v>165</v>
       </c>
       <c r="C98" t="s">
-        <v>380</v>
+        <v>254</v>
       </c>
       <c r="D98" t="s">
-        <v>411</v>
+        <v>284</v>
       </c>
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
-        <v>180</v>
+        <v>98</v>
       </c>
       <c r="B99" t="s">
-        <v>287</v>
+        <v>165</v>
       </c>
       <c r="C99" t="s">
-        <v>381</v>
+        <v>255</v>
       </c>
       <c r="D99" t="s">
-        <v>411</v>
+        <v>284</v>
       </c>
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
-        <v>182</v>
+        <v>99</v>
       </c>
       <c r="B100" t="s">
-        <v>287</v>
+        <v>165</v>
       </c>
       <c r="C100" t="s">
-        <v>382</v>
+        <v>256</v>
       </c>
       <c r="D100" t="s">
-        <v>411</v>
+        <v>284</v>
       </c>
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
-        <v>184</v>
+        <v>100</v>
       </c>
       <c r="B101" t="s">
-        <v>287</v>
+        <v>165</v>
       </c>
       <c r="C101" t="s">
-        <v>383</v>
+        <v>257</v>
       </c>
       <c r="D101" t="s">
-        <v>411</v>
+        <v>284</v>
       </c>
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
-        <v>186</v>
+        <v>101</v>
       </c>
       <c r="B102" t="s">
-        <v>294</v>
+        <v>172</v>
       </c>
       <c r="C102" t="s">
-        <v>384</v>
+        <v>258</v>
       </c>
       <c r="D102" t="s">
-        <v>411</v>
+        <v>284</v>
       </c>
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
-        <v>188</v>
+        <v>102</v>
       </c>
       <c r="B103" t="s">
-        <v>287</v>
+        <v>165</v>
       </c>
       <c r="C103" t="s">
-        <v>370</v>
+        <v>244</v>
       </c>
       <c r="D103" t="s">
-        <v>411</v>
+        <v>284</v>
       </c>
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
-        <v>190</v>
+        <v>103</v>
       </c>
       <c r="B104" t="s">
-        <v>295</v>
+        <v>173</v>
       </c>
       <c r="C104" t="s">
-        <v>312</v>
+        <v>189</v>
       </c>
       <c r="D104" t="s">
-        <v>411</v>
+        <v>284</v>
       </c>
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
-        <v>192</v>
+        <v>104</v>
       </c>
       <c r="B105" t="s">
-        <v>287</v>
+        <v>165</v>
       </c>
       <c r="C105" t="s">
-        <v>385</v>
+        <v>259</v>
       </c>
       <c r="D105" t="s">
-        <v>411</v>
+        <v>284</v>
       </c>
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
-        <v>194</v>
+        <v>105</v>
       </c>
       <c r="B106" t="s">
-        <v>287</v>
+        <v>165</v>
       </c>
       <c r="C106" t="s">
-        <v>386</v>
+        <v>260</v>
       </c>
       <c r="D106" t="s">
-        <v>411</v>
+        <v>284</v>
       </c>
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
-        <v>196</v>
+        <v>106</v>
       </c>
       <c r="B107" t="s">
-        <v>287</v>
+        <v>165</v>
       </c>
       <c r="C107" t="s">
-        <v>359</v>
+        <v>233</v>
       </c>
       <c r="D107" t="s">
-        <v>411</v>
+        <v>284</v>
       </c>
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
-        <v>198</v>
+        <v>107</v>
       </c>
       <c r="B108" t="s">
-        <v>287</v>
+        <v>165</v>
       </c>
       <c r="C108" t="s">
-        <v>387</v>
+        <v>261</v>
       </c>
       <c r="D108" t="s">
-        <v>411</v>
+        <v>284</v>
       </c>
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
-        <v>200</v>
+        <v>108</v>
       </c>
       <c r="B109" t="s">
-        <v>287</v>
+        <v>165</v>
       </c>
       <c r="C109" t="s">
-        <v>388</v>
+        <v>262</v>
       </c>
       <c r="D109" t="s">
-        <v>411</v>
+        <v>284</v>
       </c>
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
-        <v>202</v>
+        <v>109</v>
       </c>
       <c r="B110" t="s">
-        <v>287</v>
+        <v>165</v>
       </c>
       <c r="C110" t="s">
-        <v>388</v>
+        <v>262</v>
       </c>
       <c r="D110" t="s">
-        <v>411</v>
+        <v>284</v>
       </c>
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
-        <v>204</v>
+        <v>110</v>
       </c>
       <c r="B111" t="s">
-        <v>287</v>
+        <v>165</v>
       </c>
       <c r="C111" t="s">
-        <v>389</v>
+        <v>263</v>
       </c>
       <c r="D111" t="s">
-        <v>411</v>
+        <v>284</v>
       </c>
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
-        <v>206</v>
+        <v>111</v>
       </c>
       <c r="B112" t="s">
-        <v>287</v>
+        <v>165</v>
       </c>
       <c r="C112" t="s">
-        <v>389</v>
+        <v>263</v>
       </c>
       <c r="D112" t="s">
-        <v>411</v>
+        <v>284</v>
       </c>
     </row>
     <row r="113" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
-        <v>208</v>
+        <v>112</v>
       </c>
       <c r="B113" t="s">
-        <v>287</v>
+        <v>165</v>
       </c>
       <c r="C113" t="s">
-        <v>389</v>
+        <v>263</v>
       </c>
       <c r="D113" t="s">
-        <v>411</v>
+        <v>284</v>
       </c>
     </row>
     <row r="114" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
-        <v>209</v>
+        <v>113</v>
       </c>
       <c r="B114" t="s">
-        <v>296</v>
+        <v>174</v>
       </c>
       <c r="C114" t="s">
-        <v>390</v>
+        <v>264</v>
       </c>
       <c r="D114" t="s">
-        <v>411</v>
+        <v>284</v>
       </c>
     </row>
     <row r="115" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
-        <v>211</v>
+        <v>114</v>
       </c>
       <c r="B115" t="s">
-        <v>287</v>
+        <v>165</v>
       </c>
       <c r="C115" t="s">
-        <v>391</v>
+        <v>265</v>
       </c>
       <c r="D115" t="s">
-        <v>411</v>
+        <v>284</v>
       </c>
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
-        <v>213</v>
+        <v>115</v>
       </c>
       <c r="B116" t="s">
-        <v>287</v>
+        <v>165</v>
       </c>
       <c r="C116" t="s">
-        <v>391</v>
+        <v>265</v>
       </c>
       <c r="D116" t="s">
-        <v>411</v>
+        <v>284</v>
       </c>
     </row>
     <row r="117" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
-        <v>214</v>
+        <v>116</v>
       </c>
       <c r="B117" t="s">
-        <v>287</v>
+        <v>165</v>
       </c>
       <c r="C117" t="s">
-        <v>392</v>
+        <v>266</v>
       </c>
       <c r="D117" t="s">
-        <v>411</v>
+        <v>284</v>
       </c>
     </row>
     <row r="118" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
-        <v>216</v>
+        <v>117</v>
       </c>
       <c r="B118" t="s">
-        <v>287</v>
+        <v>165</v>
       </c>
       <c r="C118" t="s">
-        <v>393</v>
+        <v>267</v>
       </c>
       <c r="D118" t="s">
-        <v>411</v>
+        <v>284</v>
       </c>
     </row>
     <row r="119" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
-        <v>218</v>
+        <v>118</v>
       </c>
       <c r="B119" t="s">
-        <v>287</v>
+        <v>165</v>
       </c>
       <c r="C119" t="s">
-        <v>394</v>
+        <v>268</v>
       </c>
       <c r="D119" t="s">
-        <v>411</v>
+        <v>284</v>
       </c>
     </row>
     <row r="120" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
-        <v>220</v>
+        <v>119</v>
       </c>
       <c r="B120" t="s">
-        <v>297</v>
+        <v>175</v>
       </c>
       <c r="C120" t="s">
-        <v>395</v>
+        <v>269</v>
       </c>
       <c r="D120" t="s">
-        <v>411</v>
+        <v>284</v>
       </c>
     </row>
     <row r="121" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
-        <v>222</v>
+        <v>120</v>
       </c>
       <c r="B121" t="s">
-        <v>287</v>
+        <v>165</v>
       </c>
       <c r="C121" t="s">
-        <v>396</v>
+        <v>270</v>
       </c>
       <c r="D121" t="s">
-        <v>411</v>
+        <v>284</v>
       </c>
     </row>
     <row r="122" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
-        <v>224</v>
+        <v>121</v>
       </c>
       <c r="B122" t="s">
-        <v>296</v>
+        <v>174</v>
       </c>
       <c r="C122" t="s">
-        <v>397</v>
+        <v>271</v>
       </c>
       <c r="D122" t="s">
-        <v>411</v>
+        <v>284</v>
       </c>
     </row>
     <row r="123" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
-        <v>226</v>
+        <v>122</v>
       </c>
       <c r="B123" t="s">
-        <v>296</v>
+        <v>174</v>
       </c>
       <c r="C123" t="s">
-        <v>398</v>
+        <v>272</v>
       </c>
       <c r="D123" t="s">
-        <v>411</v>
+        <v>284</v>
       </c>
     </row>
     <row r="124" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
-        <v>228</v>
+        <v>123</v>
       </c>
       <c r="B124" t="s">
-        <v>296</v>
+        <v>174</v>
       </c>
       <c r="C124" t="s">
-        <v>312</v>
+        <v>189</v>
       </c>
       <c r="D124" t="s">
-        <v>411</v>
+        <v>284</v>
       </c>
     </row>
     <row r="125" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
-        <v>230</v>
+        <v>124</v>
       </c>
       <c r="B125" t="s">
-        <v>304</v>
+        <v>439</v>
       </c>
       <c r="C125" t="s">
-        <v>399</v>
+        <v>273</v>
       </c>
       <c r="D125" t="s">
-        <v>411</v>
+        <v>284</v>
       </c>
     </row>
     <row r="126" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
-        <v>232</v>
+        <v>125</v>
       </c>
       <c r="B126" t="s">
-        <v>304</v>
+        <v>439</v>
       </c>
       <c r="C126" t="s">
-        <v>399</v>
+        <v>273</v>
       </c>
       <c r="D126" t="s">
-        <v>411</v>
+        <v>284</v>
       </c>
     </row>
     <row r="127" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
-        <v>233</v>
+        <v>126</v>
       </c>
       <c r="B127" t="s">
-        <v>304</v>
+        <v>439</v>
       </c>
       <c r="C127" t="s">
-        <v>399</v>
+        <v>273</v>
       </c>
       <c r="D127" t="s">
-        <v>411</v>
+        <v>284</v>
       </c>
     </row>
     <row r="128" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
-        <v>234</v>
+        <v>127</v>
       </c>
       <c r="B128" t="s">
-        <v>304</v>
+        <v>439</v>
       </c>
       <c r="C128" t="s">
-        <v>399</v>
+        <v>273</v>
       </c>
       <c r="D128" t="s">
-        <v>411</v>
+        <v>284</v>
       </c>
     </row>
     <row r="129" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
-        <v>235</v>
+        <v>128</v>
       </c>
       <c r="B129" t="s">
-        <v>296</v>
+        <v>174</v>
       </c>
       <c r="C129" t="s">
-        <v>400</v>
+        <v>274</v>
       </c>
       <c r="D129" t="s">
-        <v>411</v>
+        <v>284</v>
       </c>
     </row>
     <row r="130" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
-        <v>237</v>
+        <v>129</v>
       </c>
       <c r="B130" t="s">
-        <v>296</v>
+        <v>174</v>
       </c>
       <c r="C130" t="s">
-        <v>400</v>
+        <v>274</v>
       </c>
       <c r="D130" t="s">
-        <v>411</v>
+        <v>284</v>
       </c>
     </row>
     <row r="131" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
-        <v>238</v>
+        <v>130</v>
       </c>
       <c r="B131" t="s">
-        <v>296</v>
+        <v>174</v>
       </c>
       <c r="C131" t="s">
-        <v>400</v>
+        <v>274</v>
       </c>
       <c r="D131" t="s">
-        <v>411</v>
+        <v>284</v>
       </c>
     </row>
     <row r="132" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
-        <v>239</v>
+        <v>131</v>
       </c>
       <c r="B132" t="s">
-        <v>296</v>
+        <v>174</v>
       </c>
       <c r="C132" t="s">
-        <v>400</v>
+        <v>274</v>
       </c>
       <c r="D132" t="s">
-        <v>411</v>
+        <v>284</v>
       </c>
     </row>
     <row r="133" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
-        <v>240</v>
+        <v>132</v>
       </c>
       <c r="B133" t="s">
-        <v>296</v>
+        <v>174</v>
       </c>
       <c r="C133" t="s">
-        <v>400</v>
+        <v>274</v>
       </c>
       <c r="D133" t="s">
-        <v>439</v>
+        <v>309</v>
       </c>
     </row>
     <row r="134" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
-        <v>68</v>
+        <v>40</v>
       </c>
       <c r="B134" t="s">
-        <v>279</v>
+        <v>157</v>
       </c>
       <c r="C134" t="s">
-        <v>402</v>
+        <v>275</v>
       </c>
       <c r="D134" t="s">
-        <v>439</v>
+        <v>309</v>
       </c>
     </row>
     <row r="135" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
-        <v>243</v>
+        <v>133</v>
       </c>
       <c r="B135" t="s">
-        <v>298</v>
+        <v>176</v>
       </c>
       <c r="C135" t="s">
-        <v>381</v>
+        <v>255</v>
       </c>
       <c r="D135" t="s">
-        <v>411</v>
+        <v>284</v>
       </c>
     </row>
     <row r="136" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
-        <v>245</v>
+        <v>134</v>
       </c>
       <c r="B136" t="s">
-        <v>293</v>
+        <v>171</v>
       </c>
       <c r="C136" t="s">
-        <v>403</v>
+        <v>276</v>
       </c>
       <c r="D136" t="s">
-        <v>411</v>
+        <v>284</v>
       </c>
     </row>
     <row r="137" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
-        <v>247</v>
+        <v>135</v>
       </c>
       <c r="B137" t="s">
-        <v>275</v>
+        <v>153</v>
       </c>
       <c r="C137" t="s">
-        <v>359</v>
+        <v>233</v>
       </c>
       <c r="D137" t="s">
-        <v>428</v>
+        <v>301</v>
       </c>
     </row>
     <row r="138" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
-        <v>249</v>
+        <v>136</v>
       </c>
       <c r="B138" t="s">
-        <v>269</v>
+        <v>147</v>
       </c>
       <c r="C138" t="s">
-        <v>347</v>
+        <v>221</v>
       </c>
       <c r="D138" t="s">
-        <v>428</v>
+        <v>301</v>
       </c>
     </row>
     <row r="139" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
-        <v>251</v>
+        <v>137</v>
       </c>
       <c r="B139" t="s">
-        <v>299</v>
+        <v>177</v>
       </c>
       <c r="C139" t="s">
-        <v>359</v>
+        <v>233</v>
       </c>
       <c r="D139" t="s">
-        <v>411</v>
+        <v>284</v>
       </c>
     </row>
     <row r="140" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
-        <v>253</v>
+        <v>138</v>
       </c>
       <c r="B140" t="s">
-        <v>269</v>
+        <v>147</v>
       </c>
       <c r="C140" t="s">
-        <v>330</v>
+        <v>207</v>
       </c>
       <c r="D140" t="s">
-        <v>440</v>
+        <v>310</v>
       </c>
     </row>
     <row r="141" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
-        <v>255</v>
+        <v>139</v>
       </c>
       <c r="B141" t="s">
-        <v>299</v>
+        <v>177</v>
       </c>
       <c r="C141" t="s">
-        <v>330</v>
+        <v>207</v>
       </c>
       <c r="D141" t="s">
-        <v>411</v>
+        <v>284</v>
       </c>
     </row>
     <row r="142" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
-        <v>257</v>
+        <v>140</v>
       </c>
       <c r="B142" t="s">
-        <v>298</v>
+        <v>176</v>
       </c>
       <c r="C142" t="s">
-        <v>404</v>
+        <v>277</v>
       </c>
       <c r="D142" t="s">
-        <v>411</v>
+        <v>284</v>
       </c>
     </row>
     <row r="143" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
-        <v>259</v>
+        <v>141</v>
       </c>
       <c r="B143" t="s">
-        <v>298</v>
+        <v>176</v>
       </c>
       <c r="C143" t="s">
-        <v>404</v>
+        <v>277</v>
       </c>
       <c r="D143" t="s">
-        <v>411</v>
+        <v>284</v>
       </c>
     </row>
     <row r="144" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
-        <v>260</v>
+        <v>142</v>
       </c>
       <c r="B144" t="s">
-        <v>298</v>
+        <v>176</v>
       </c>
       <c r="C144" t="s">
-        <v>405</v>
+        <v>278</v>
       </c>
       <c r="D144" t="s">
-        <v>411</v>
+        <v>284</v>
       </c>
     </row>
     <row r="145" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
-        <v>262</v>
+        <v>143</v>
       </c>
       <c r="B145" t="s">
-        <v>298</v>
+        <v>176</v>
       </c>
       <c r="C145" t="s">
-        <v>406</v>
+        <v>279</v>
       </c>
       <c r="D145" t="s">
-        <v>411</v>
+        <v>284</v>
       </c>
     </row>
     <row r="146" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
-        <v>264</v>
+        <v>144</v>
       </c>
       <c r="B146" t="s">
-        <v>300</v>
+        <v>178</v>
       </c>
       <c r="C146" t="s">
-        <v>407</v>
+        <v>280</v>
       </c>
       <c r="D146" t="s">
-        <v>411</v>
+        <v>284</v>
       </c>
     </row>
   </sheetData>
